--- a/RESULT_FACILITIES.xlsx
+++ b/RESULT_FACILITIES.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="434">
   <si>
     <t>searched</t>
   </si>
@@ -77,1195 +77,1186 @@
     <t>38068</t>
   </si>
   <si>
+    <t>Trento - Cinema Teatro Nuovo RomaCorso III Novembre, 35 – Trento</t>
+  </si>
+  <si>
+    <t>Corso 3 Novembre 1918, 35, 38122 Trento TN</t>
+  </si>
+  <si>
+    <t>38122</t>
+  </si>
+  <si>
+    <t>Cinema Teatro Nuovo Roma</t>
+  </si>
+  <si>
+    <t>0461 261819</t>
+  </si>
+  <si>
+    <t>http://www.cineworldtrento.it/</t>
+  </si>
+  <si>
+    <t>No email from google to avoid spamming</t>
+  </si>
+  <si>
     <t>Trento - Supercinema VittoriaVia Manci, 72 – Trento</t>
   </si>
   <si>
     <t>Via Giannantonio Manci, 72, 38122 Trento TN</t>
   </si>
   <si>
-    <t>38122</t>
-  </si>
-  <si>
     <t>Supercinema Vittoria</t>
   </si>
   <si>
-    <t>0461 261819</t>
-  </si>
-  <si>
-    <t>http://www.cineworldtrento.it/</t>
-  </si>
-  <si>
-    <t>No email from google to avoid spamming</t>
+    <t>Trento - Multisala G. ModenaViale S. F. d’Assisi, 8/a – Trento</t>
+  </si>
+  <si>
+    <t>Viale S. Francesco d'Assisi, 6, 38122 Trento TN</t>
+  </si>
+  <si>
+    <t>Multiplex G. Modena</t>
+  </si>
+  <si>
+    <t>Trento --SELF--  --SELF-- Palazzo Trentini</t>
+  </si>
+  <si>
+    <t>Via Giannantonio Manci, 27, 38122 Trento TN</t>
+  </si>
+  <si>
+    <t>palazzo Trentini</t>
+  </si>
+  <si>
+    <t>Trento --SELF--  --SELF-- Muse - Science Museum - Trento</t>
+  </si>
+  <si>
+    <t>Corso del Lavoro e della Scienza, 3, 38122 Trento TN</t>
+  </si>
+  <si>
+    <t>38121</t>
+  </si>
+  <si>
+    <t>MUSE</t>
+  </si>
+  <si>
+    <t>0461 270311</t>
+  </si>
+  <si>
+    <t>https://www.muse.it/</t>
+  </si>
+  <si>
+    <t>Trento --SELF--  --SELF-- Sanbàpolis theatre</t>
+  </si>
+  <si>
+    <t>Via della Malpensada, 82, 38123 Trento TN</t>
+  </si>
+  <si>
+    <t>38123</t>
+  </si>
+  <si>
+    <t>Teatro SanbàPolis</t>
+  </si>
+  <si>
+    <t>Trento --SELF--  --SELF-- Social Theatre</t>
+  </si>
+  <si>
+    <t>Via Paolo Oss-Mazzurana, 19, 38122 Trento TN</t>
+  </si>
+  <si>
+    <t>Social Theatre</t>
+  </si>
+  <si>
+    <t>0461 213862</t>
+  </si>
+  <si>
+    <t>http://www.centrosantachiara.it/</t>
+  </si>
+  <si>
+    <t>Trento --SELF--  --SELF-- Cuminetti Theatre</t>
+  </si>
+  <si>
+    <t>Teatro Sanbapolis ,Via della Malpensada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trento --SELF-- Chiesa di San Francesco Saverio --SELF-- </t>
+  </si>
+  <si>
+    <t>Via Roma, 57, 38122 Trento TN</t>
+  </si>
+  <si>
+    <t>San Francesco Saverio</t>
+  </si>
+  <si>
+    <t>0461 980132</t>
+  </si>
+  <si>
+    <t>Avio --SELF--  --SELF-- Avio castle</t>
+  </si>
+  <si>
+    <t>Via al Castello, 38063 Sabbionara, Avio TN</t>
+  </si>
+  <si>
+    <t>38063</t>
+  </si>
+  <si>
+    <t>FAI - Castello di Avio</t>
+  </si>
+  <si>
+    <t>0464 684453</t>
+  </si>
+  <si>
+    <t>http://www.castellodiavio.it/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riva del Garda --SELF--  --SELF-- Mag Alto Garda museum </t>
+  </si>
+  <si>
+    <t>Piazza Cesare Battisti, 3/A, 38066 Riva del Garda TN</t>
+  </si>
+  <si>
+    <t>38066</t>
+  </si>
+  <si>
+    <t>MAG Museo Alto Garda</t>
+  </si>
+  <si>
+    <t>0464 573869</t>
+  </si>
+  <si>
+    <t>http://www.museoaltogarda.it/</t>
+  </si>
+  <si>
+    <t>Muse</t>
+  </si>
+  <si>
+    <t>Muse, Trento</t>
+  </si>
+  <si>
+    <t>Attività sul territorio</t>
+  </si>
+  <si>
+    <t>Trento --SELF--  --SELF-- Sala Sosat</t>
+  </si>
+  <si>
+    <t>Via Giovanni Battista Trener, 16, 38121 Trento TN</t>
+  </si>
+  <si>
+    <t>Ristorante Self Glenda</t>
+  </si>
+  <si>
+    <t>0461 822160</t>
+  </si>
+  <si>
+    <t>http://www.risto3.it/</t>
+  </si>
+  <si>
+    <t>Piazza Fiera ,Piazza di Fiera</t>
+  </si>
+  <si>
+    <t>Piazza di Fiera, 38122 Trento TN</t>
+  </si>
+  <si>
+    <t>Trento --SELF--  --SELF-- Buonconsiglio Castle</t>
+  </si>
+  <si>
+    <t>Via Bernardo Clesio, 5, 38122 Trento TN</t>
+  </si>
+  <si>
+    <t>Buonconsiglio Castle Museum</t>
+  </si>
+  <si>
+    <t>0461 233770</t>
+  </si>
+  <si>
+    <t>http://www.buonconsiglio.it/</t>
+  </si>
+  <si>
+    <t>Castello del Buonconsiglio ,Via Bernardo Clesio</t>
+  </si>
+  <si>
+    <t>Mart, sale espositive</t>
+  </si>
+  <si>
+    <t>Corso Angelo Bettini, 43, 38068 Rovereto TN</t>
+  </si>
+  <si>
+    <t>Museum of Modern and Contemporary Art of Trento and Rovereto</t>
+  </si>
+  <si>
+    <t>0464 438887</t>
+  </si>
+  <si>
+    <t>http://www.mart.trento.it/</t>
+  </si>
+  <si>
+    <t>Mart, Area educazione</t>
+  </si>
+  <si>
+    <t>Mart, Sale espositive</t>
+  </si>
+  <si>
+    <t>Borgo Valsugana --SELF--  --SELF-- Arte Sella</t>
+  </si>
+  <si>
+    <t>Malga Costa, 38051 Borgo Valsugana TN</t>
+  </si>
+  <si>
+    <t>38051</t>
+  </si>
+  <si>
+    <t>Arte Sella</t>
+  </si>
+  <si>
+    <t>0461 751251</t>
+  </si>
+  <si>
+    <t>http://www.artesella.it/</t>
+  </si>
+  <si>
+    <t>Piazza Santa Maria Maggiore ,Piazza Santa Maria Maggiore</t>
+  </si>
+  <si>
+    <t>Piazza Santa Maria Maggiore, 38122 Trento TN</t>
+  </si>
+  <si>
+    <t>Bookique ,Via Torre D'Augusto</t>
+  </si>
+  <si>
+    <t>Via Torre D'Augusto, 29, 38122 Trento TN</t>
+  </si>
+  <si>
+    <t>Bookique</t>
+  </si>
+  <si>
+    <t>342 701 1498</t>
+  </si>
+  <si>
+    <t>https://bookique.net/</t>
+  </si>
+  <si>
+    <t>Rovereto --SELF--  --SELF-- Mart - Museum of Modern and Contemporary Art of Rovereto - Rovereto</t>
+  </si>
+  <si>
+    <t>Mart, Rovereto</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>10060 None, Metropolitan City of Turin</t>
+  </si>
+  <si>
+    <t>10060</t>
+  </si>
+  <si>
+    <t>Circolo ACLI GARDOLO ,Via Laurence Feininger, 4</t>
+  </si>
+  <si>
+    <t>Via Laurence Feininger, 4, 38121 Trento TN</t>
+  </si>
+  <si>
+    <t>Museo Geologico delle Dolomiti di Predazzo</t>
+  </si>
+  <si>
+    <t>Piazza SS. Filippo e Giacomo, 2, 38037 Predazzo TN</t>
+  </si>
+  <si>
+    <t>38037</t>
+  </si>
+  <si>
+    <t>Geological Museum of the Dolomites Predazzo</t>
+  </si>
+  <si>
+    <t>0462 500366</t>
+  </si>
+  <si>
+    <t>http://www2.muse.it/museogeologico/</t>
+  </si>
+  <si>
+    <t>Castello di Avio ,via al castello ,Avio</t>
+  </si>
+  <si>
+    <t>Mart - Museo di Arte Moderna e Contemporanea ,Corso Bettini ,Rovereto</t>
+  </si>
+  <si>
+    <t>Distilleria Marzadro ,Strada Provinciale 90 ,Isera</t>
+  </si>
+  <si>
+    <t>Via per Brancolino, 10, 38060 Nogaredo TN</t>
+  </si>
+  <si>
+    <t>38060</t>
+  </si>
+  <si>
+    <t>Distilleria Marzadro</t>
+  </si>
+  <si>
+    <t>0464 304555</t>
+  </si>
+  <si>
+    <t>https://www.marzadro.it/</t>
+  </si>
+  <si>
+    <t>centro storico ,Piaz de Ramon ,Moena</t>
+  </si>
+  <si>
+    <t>Piaz de Ramon, 59, 38035 Moena TN</t>
+  </si>
+  <si>
+    <t>38035</t>
+  </si>
+  <si>
+    <t>Apartments Moena - Living 2000</t>
+  </si>
+  <si>
+    <t>0462 573193</t>
+  </si>
+  <si>
+    <t>http://www.moena-appartamenti.it/</t>
+  </si>
+  <si>
+    <t>EIT Digital Italy Co-Location Centre ,Via Sommarive, 18</t>
+  </si>
+  <si>
+    <t>1st floor Northern Building, Via Sommarive, 18, 38123 Povo TN</t>
+  </si>
+  <si>
+    <t>EIT Digital Italy</t>
+  </si>
+  <si>
+    <t>0461 314045</t>
+  </si>
+  <si>
+    <t>https://www.eitdigital.eu/</t>
+  </si>
+  <si>
+    <t>Bugs ,Largo Giosuè Carducci</t>
+  </si>
+  <si>
+    <t>Largo Giosuè Carducci, 51, 38122 Trento TN</t>
+  </si>
+  <si>
+    <t>Bugs Trento</t>
+  </si>
+  <si>
+    <t>http://facebook.com/bugstrento</t>
+  </si>
+  <si>
+    <t>Piedicastello ,Via Dòs Trento</t>
+  </si>
+  <si>
+    <t>Vicolo di Piedicastello &amp; Via Dòs Trento, 38122 Trento TN</t>
+  </si>
+  <si>
+    <t>Le Gallerie Piedicastello ,Via Dòs Trento</t>
+  </si>
+  <si>
+    <t>Piazza di Piedicastello, 38122 Trento TN</t>
+  </si>
+  <si>
+    <t>The Piedicastello Tunnel</t>
+  </si>
+  <si>
+    <t>0461 174 7000</t>
+  </si>
+  <si>
+    <t>http://fondazione.museostorico.it/index.php/Luoghi/I-luoghi-della-Fondazione/Le-Gallerie</t>
+  </si>
+  <si>
+    <t>Centro Storico ,Indirizzo non disponibile ,Pergine Valsugana</t>
+  </si>
+  <si>
+    <t>Via al Castello, 10, 38057 Pergine Valsugana TN</t>
+  </si>
+  <si>
+    <t>38057</t>
+  </si>
+  <si>
+    <t>Castel Pergine</t>
+  </si>
+  <si>
+    <t>0461 531158</t>
+  </si>
+  <si>
+    <t>http://www.castelpergine.it/it/</t>
+  </si>
+  <si>
+    <t>centro storico ,Via Andrea Maffei ,Riva del Garda</t>
+  </si>
+  <si>
+    <t>Viale Lutti Alberti, 7, 38066 Riva del Garda TN</t>
+  </si>
+  <si>
+    <t>Liceo Andrea Maffei</t>
+  </si>
+  <si>
+    <t>0464 553511</t>
+  </si>
+  <si>
+    <t>http://e.liceomaffei.it/</t>
+  </si>
+  <si>
+    <t>Teatro Sociale ,Via Oss Mazzurana</t>
+  </si>
+  <si>
+    <t>Giardino dei Ciucioi ,Piazza Venezia, 2 ,Lavarone</t>
+  </si>
+  <si>
+    <t>Vicolo dei Ciucioi, 38015 Lavis TN</t>
+  </si>
+  <si>
+    <t>38015</t>
+  </si>
+  <si>
+    <t>Giardino dei Ciucioi</t>
+  </si>
+  <si>
+    <t>327 766 0813</t>
+  </si>
+  <si>
+    <t>http://www.ecoargentario.it/</t>
+  </si>
+  <si>
+    <t>centro storico ,Via Dante Alighieri ,Tenno</t>
+  </si>
+  <si>
+    <t>Via Dante Alighieri, 18, 38060 Tenno TN</t>
+  </si>
+  <si>
+    <t>Comune di Tenno</t>
+  </si>
+  <si>
+    <t>0464 500624</t>
+  </si>
+  <si>
+    <t>http://www.comune.tenno.tn.it/</t>
+  </si>
+  <si>
+    <t>Teatro San Marco ,Via San Bernardino</t>
+  </si>
+  <si>
+    <t>Via S. Bernardino, 10, 38122 Trento TN</t>
+  </si>
+  <si>
+    <t>Teatro San Marco</t>
+  </si>
+  <si>
+    <t>0461 233522</t>
+  </si>
+  <si>
+    <t>https://www.teatrosanmarco.it/</t>
+  </si>
+  <si>
+    <t>parrocchia di Madonna Bianca ,Via Angelo Bettini, 11</t>
+  </si>
+  <si>
+    <t>Via Angelo Bettini, 11, 38123 Trento TN</t>
+  </si>
+  <si>
+    <t>Centro Storico ,Strada de Meida ,Pozza di Fassa</t>
+  </si>
+  <si>
+    <t>strada de Meida, 67, 38036 Pozza di Fassa TN</t>
+  </si>
+  <si>
+    <t>38036</t>
+  </si>
+  <si>
+    <t>Hotel Meida - Pozza di Fassa</t>
+  </si>
+  <si>
+    <t>0462 764283</t>
+  </si>
+  <si>
+    <t>http://www.hotelmeida.it/</t>
+  </si>
+  <si>
+    <t>Centro Storico ,Piazza Gavazzi ,Pergine Valsugana</t>
+  </si>
+  <si>
+    <t>Piazza Municipio, 7, 38057 Pergine Valsugana TN</t>
+  </si>
+  <si>
+    <t>City of Pergine Valsugana</t>
+  </si>
+  <si>
+    <t>0461 502111</t>
+  </si>
+  <si>
+    <t>http://www.comune.pergine.tn.it/</t>
+  </si>
+  <si>
+    <t>Arco</t>
+  </si>
+  <si>
+    <t>38062 Arco, Province of Trento</t>
+  </si>
+  <si>
+    <t>38062</t>
+  </si>
+  <si>
+    <t>centro storico ,Indirizzo non disponibile ,Cavalese</t>
+  </si>
+  <si>
+    <t>Via Antoniazzi, 14, 38033 Cavalese TN</t>
+  </si>
+  <si>
+    <t>38033</t>
+  </si>
+  <si>
+    <t>Hotel Garni Laurino</t>
+  </si>
+  <si>
+    <t>0462 340151</t>
+  </si>
+  <si>
+    <t>http://www.hotelgarnilaurino.it/</t>
+  </si>
+  <si>
+    <t>Teatro di Meano ,Via delle Sugarine, 22</t>
+  </si>
+  <si>
+    <t>Via delle Sugarine, 22, 38121 Meano TN</t>
+  </si>
+  <si>
+    <t>Teatro di Meano</t>
+  </si>
+  <si>
+    <t>0461 534321</t>
+  </si>
+  <si>
+    <t>http://www.teatrodimeano.it/</t>
+  </si>
+  <si>
+    <t>Teatro Portland ,Via Papiria, 8</t>
+  </si>
+  <si>
+    <t>Via Papiria, 8, 38122 Trento TN</t>
+  </si>
+  <si>
+    <t>Teatro Portland</t>
+  </si>
+  <si>
+    <t>0461 924470</t>
+  </si>
+  <si>
+    <t>http://www.teatroportland.it/</t>
+  </si>
+  <si>
+    <t>Trentino-Alto Adige, Italy ,Piazza di San Vigilio ,Calavino</t>
+  </si>
+  <si>
+    <t>Piazza di S. Vigilio, 38070 Santa Massenza TN</t>
+  </si>
+  <si>
+    <t>38070</t>
+  </si>
+  <si>
+    <t>Palazzo delle Albere ,Via Roberto da Sanseverino</t>
+  </si>
+  <si>
+    <t>Via Roberto da Sanseverino, 43, 38122 Trento TN</t>
+  </si>
+  <si>
+    <t>Albere Palace</t>
+  </si>
+  <si>
+    <t>0461 496914</t>
+  </si>
+  <si>
+    <t>https://www.cultura.trentino.it/Luoghi/Tutti-i-luoghi-della-cultura/Palazzi-storici/Palazzo-delle-Albere</t>
+  </si>
+  <si>
+    <t>Chiese della città ,Piazza Santa Maria Maggiore</t>
+  </si>
+  <si>
+    <t>Vicolo delle Orsoline, 1, 38122 Trento TN</t>
+  </si>
+  <si>
+    <t>Santa Maria Maggiore, Trento</t>
+  </si>
+  <si>
+    <t>0461 230037</t>
+  </si>
+  <si>
+    <t>http://www.comune.trento.it/Aree-tematiche/Turismo/Visitare/Chiese/Basilica-di-Santa-Maria-Maggiore</t>
+  </si>
+  <si>
+    <t>Cinema Comunale di Ossana ,Via Bartolomeo Bezzi, 12 ,Ossana</t>
+  </si>
+  <si>
+    <t>Via Bartolomeo Bezzi, 0, 38026 Ossana TN</t>
+  </si>
+  <si>
+    <t>38026</t>
+  </si>
+  <si>
+    <t>Biblioteca - Teatro Comunali</t>
+  </si>
+  <si>
+    <t>0463 752013</t>
+  </si>
+  <si>
+    <t>http://www.bibliotechevaldisole.it/biblioteche</t>
+  </si>
+  <si>
+    <t>Riva del Garda</t>
+  </si>
+  <si>
+    <t>38066 Riva del Garda, Province of Trento</t>
+  </si>
+  <si>
+    <t>Torbole sul Garda - Nago</t>
+  </si>
+  <si>
+    <t>38069 Nago–Torbole, Province of Trento</t>
+  </si>
+  <si>
+    <t>38069</t>
+  </si>
+  <si>
+    <t>Vezzano</t>
+  </si>
+  <si>
+    <t>38070 Vezzano, Province of Trento</t>
+  </si>
+  <si>
+    <t>centro storico ,Corso Bettini ,Rovereto</t>
+  </si>
+  <si>
+    <t>Corso Angelo, Corso Bettini, 64, 38068 Rovereto TN</t>
+  </si>
+  <si>
+    <t>Consorzio Rovereto In Centro</t>
+  </si>
+  <si>
+    <t>0464 424047</t>
+  </si>
+  <si>
+    <t>http://www.roveretoincentro.com/</t>
+  </si>
+  <si>
+    <t>Teatro comunale di Pergine Valsugana ,Piazza Garibaldi, 5g ,Pergine Valsugana</t>
+  </si>
+  <si>
+    <t>Piazza Garibaldi, 5G, 38057 Pergine Valsugana TN</t>
+  </si>
+  <si>
+    <t>Teatro Comunale di Pergine</t>
+  </si>
+  <si>
+    <t>http://www.teatrodipergine.it/</t>
+  </si>
+  <si>
+    <t>Centro di meditazione Kushi Ling ,Via Alle Fontane, Loc. Laghel 44 ,Arco</t>
+  </si>
+  <si>
+    <t>Kushi Ling</t>
+  </si>
+  <si>
+    <t>http://www.kushi-ling.com/en/</t>
+  </si>
+  <si>
+    <t>Marilleva</t>
+  </si>
+  <si>
+    <t>38020 Marilleva, Province of Trento</t>
+  </si>
+  <si>
+    <t>38020</t>
+  </si>
+  <si>
+    <t>Rovereto</t>
+  </si>
+  <si>
+    <t>38068 Rovereto, Province of Trento</t>
+  </si>
+  <si>
+    <t>Moena</t>
+  </si>
+  <si>
+    <t>38035 Moena, Province of Trento</t>
+  </si>
+  <si>
+    <t>Primiero - Imer</t>
+  </si>
+  <si>
+    <t>38054 Fiera di Primiero, Province of Trento</t>
+  </si>
+  <si>
+    <t>38054</t>
+  </si>
+  <si>
+    <t>San Martino di Castrozza</t>
+  </si>
+  <si>
+    <t>38054 San Martino di Castrozza, Province of Trento</t>
+  </si>
+  <si>
+    <t>Ala</t>
+  </si>
+  <si>
+    <t>38061 Ala, Province of Trento</t>
+  </si>
+  <si>
+    <t>38061</t>
+  </si>
+  <si>
+    <t>Rovereto, Terragnolo</t>
+  </si>
+  <si>
+    <t>Castellano ,via al castello ,Villa Lagarina</t>
+  </si>
+  <si>
+    <t>Viale Lodron, 17, 38060 Castellano TN</t>
+  </si>
+  <si>
+    <t>Castle of Castellano</t>
+  </si>
+  <si>
+    <t>349 711 9977</t>
+  </si>
+  <si>
+    <t>https://www.visitrovereto.it/scopri/castelli/castello-di-castellano/</t>
+  </si>
+  <si>
+    <t>Santa Massenza ,Centro storico ,Vezzano</t>
+  </si>
+  <si>
+    <t>38070 Santa Massenza, Province of Trento</t>
+  </si>
+  <si>
+    <t>Fiera di Primiero, Primiero - Siror, Primiero - Imer ...</t>
+  </si>
+  <si>
+    <t>Ristoranti della città ,Piazza del Duomo</t>
+  </si>
+  <si>
+    <t>Piazza del Duomo, 20121 Milano MI</t>
+  </si>
+  <si>
+    <t>20121</t>
+  </si>
+  <si>
+    <t>Maio Restaurant</t>
+  </si>
+  <si>
+    <t>02 885 2455</t>
+  </si>
+  <si>
+    <t>http://www.maiorestaurant.com/</t>
+  </si>
+  <si>
+    <t>Arco, Drena, Dro ...</t>
+  </si>
+  <si>
+    <t>38074 Drena, Province of Trento</t>
+  </si>
+  <si>
+    <t>38074</t>
+  </si>
+  <si>
+    <t>Spazio Archeologico Sotterraneo del SAS ,Piazza Cesare Battisti</t>
+  </si>
+  <si>
+    <t>Piazza Cesare Battisti, 38122 Trento TN</t>
+  </si>
+  <si>
+    <t>Museo S.A.S.S. Spazio Archeologico Sotterraneo del Sas</t>
+  </si>
+  <si>
+    <t>0461 230171</t>
+  </si>
+  <si>
+    <t>https://www.cultura.trentino.it/Temi/Archeologia</t>
+  </si>
+  <si>
+    <t>Primiero - Siror</t>
+  </si>
+  <si>
+    <t>Folgarida, Marilleva, Passo del Tonale ...</t>
+  </si>
+  <si>
+    <t>Tonale Pass, 25056 Ponte di Legno, Province of Brescia</t>
+  </si>
+  <si>
+    <t>25056</t>
+  </si>
+  <si>
+    <t>Vigo di Fassa</t>
+  </si>
+  <si>
+    <t>38039 Vigo di Fassa, Province of Trento</t>
+  </si>
+  <si>
+    <t>38039</t>
+  </si>
+  <si>
+    <t>Centro Storico ,Via Giuseppe Garibaldi</t>
+  </si>
+  <si>
+    <t>Via Giuseppe Garibaldi, 10122 Torino TO</t>
+  </si>
+  <si>
+    <t>10122</t>
+  </si>
+  <si>
+    <t>centro storico ,Via Giovanni Segantini ,Arco</t>
+  </si>
+  <si>
+    <t>Via Giovanni Segantini, 75, 38062 Arco TN</t>
+  </si>
+  <si>
+    <t>Appartamenti Segantini Arco</t>
+  </si>
+  <si>
+    <t>347 412 0189</t>
+  </si>
+  <si>
+    <t>http://appartamentisegantini.com/</t>
+  </si>
+  <si>
+    <t>Levico Terme</t>
+  </si>
+  <si>
+    <t>38056 Levico Terme, Province of Trento</t>
+  </si>
+  <si>
+    <t>38056</t>
+  </si>
+  <si>
+    <t>Campitello di Fassa, Canazei, Moena ...</t>
+  </si>
+  <si>
+    <t>Canazei TN</t>
+  </si>
+  <si>
+    <t>38032</t>
+  </si>
+  <si>
+    <t>Dro</t>
+  </si>
+  <si>
+    <t>38074 Dro, Province of Trento</t>
+  </si>
+  <si>
+    <t>Polsa, San Valentino</t>
+  </si>
+  <si>
+    <t>Piazza Polsa, 1, 38060 Polsa, Brentonico TN</t>
+  </si>
+  <si>
+    <t>Brentonico Ski</t>
+  </si>
+  <si>
+    <t>377 167 8207</t>
+  </si>
+  <si>
+    <t>http://www.brentonicoski.com/</t>
+  </si>
+  <si>
+    <t>Caldes</t>
+  </si>
+  <si>
+    <t>38022 Caldes, Province of Trento</t>
+  </si>
+  <si>
+    <t>38022</t>
+  </si>
+  <si>
+    <t>Trento</t>
+  </si>
+  <si>
+    <t>Trento, Province of Trento</t>
+  </si>
+  <si>
+    <t>Lavarone, Folgaria, Luserna</t>
+  </si>
+  <si>
+    <t>38040 Luserna, Province of Trento</t>
+  </si>
+  <si>
+    <t>38040</t>
+  </si>
+  <si>
+    <t>Arco, Riva del Garda</t>
+  </si>
+  <si>
+    <t>Cavalese</t>
+  </si>
+  <si>
+    <t>38033 Cavalese, Province of Trento</t>
+  </si>
+  <si>
+    <t>Bosentino</t>
+  </si>
+  <si>
+    <t>38049 Bosentino, Province of Trento</t>
+  </si>
+  <si>
+    <t>38049</t>
+  </si>
+  <si>
+    <t>Canazei, Moena, Vigo di Fassa</t>
+  </si>
+  <si>
+    <t>Tenno</t>
+  </si>
+  <si>
+    <t>38060 Tenno, Province of Trento</t>
+  </si>
+  <si>
+    <t>Cavalese, Alpe Cermis, Pampeago-Predazzo-Obereggen ...</t>
+  </si>
+  <si>
+    <t>Cermis, 38033 Cavalese, Province of Trento</t>
+  </si>
+  <si>
+    <t>Folgaria</t>
+  </si>
+  <si>
+    <t>38064 Folgaria, Province of Trento</t>
+  </si>
+  <si>
+    <t>38064</t>
+  </si>
+  <si>
+    <t>Via del Suffragio ,Via del Suffragio</t>
+  </si>
+  <si>
+    <t>Via del Suffragio, 38122 Trento TN</t>
+  </si>
+  <si>
+    <t>Parco Asburgico ,Via Guglielmo Marconi ,Levico Terme</t>
+  </si>
+  <si>
+    <t>Via Guglielmo Marconi, 38056 Levico Terme TN</t>
+  </si>
+  <si>
+    <t>Parco Asburgico Secolare di Levico Terme</t>
+  </si>
+  <si>
+    <t>http://www.naturambiente.provincia.tn.it/parco_levico/</t>
+  </si>
+  <si>
+    <t>Baselga di Pine'</t>
+  </si>
+  <si>
+    <t>38042 Baselga di Pinè, Province of Trento</t>
+  </si>
+  <si>
+    <t>38042</t>
+  </si>
+  <si>
+    <t>Vallarsa</t>
+  </si>
+  <si>
+    <t>38060 Vallarsa, Province of Trento</t>
+  </si>
+  <si>
+    <t>Faedo</t>
+  </si>
+  <si>
+    <t>38010 Faedo, Province of Trento</t>
+  </si>
+  <si>
+    <t>38010</t>
+  </si>
+  <si>
+    <t>Mori</t>
+  </si>
+  <si>
+    <t>38065 Mori, Province of Trento</t>
+  </si>
+  <si>
+    <t>38065</t>
+  </si>
+  <si>
+    <t>Centro Storico ,Piazza del Duomo</t>
+  </si>
+  <si>
+    <t>Piazza del Duomo, 50122 Firenze FI</t>
+  </si>
+  <si>
+    <t>50122</t>
+  </si>
+  <si>
+    <t>Piazza del Duomo</t>
+  </si>
+  <si>
+    <t>Brentonico</t>
+  </si>
+  <si>
+    <t>38060 Brentonico, Province of Trento</t>
+  </si>
+  <si>
+    <t>Campitello di Fassa</t>
+  </si>
+  <si>
+    <t>38031 Campitello di Fassa, Province of Trento</t>
+  </si>
+  <si>
+    <t>38031</t>
+  </si>
+  <si>
+    <t>Canazei</t>
+  </si>
+  <si>
+    <t>38032 Canazei, Province of Trento</t>
+  </si>
+  <si>
+    <t>Cimego</t>
+  </si>
+  <si>
+    <t>38082 Cimego, Province of Trento</t>
+  </si>
+  <si>
+    <t>38082</t>
+  </si>
+  <si>
+    <t>Commezzadura</t>
+  </si>
+  <si>
+    <t>38020 Commezzadura, Province of Trento</t>
+  </si>
+  <si>
+    <t>Fondo</t>
+  </si>
+  <si>
+    <t>38013 Fondo, Province of Trento</t>
+  </si>
+  <si>
+    <t>38013</t>
+  </si>
+  <si>
+    <t>Predazzo</t>
+  </si>
+  <si>
+    <t>38037 Predazzo, Province of Trento</t>
+  </si>
+  <si>
+    <t>Ossana</t>
+  </si>
+  <si>
+    <t>38026 Ossana, Province of Trento</t>
+  </si>
+  <si>
+    <t>Varena</t>
+  </si>
+  <si>
+    <t>38030 Varena, Trentino, Province of Trento</t>
+  </si>
+  <si>
+    <t>38030</t>
+  </si>
+  <si>
+    <t>Denno</t>
+  </si>
+  <si>
+    <t>38010 Denno, Province of Trento</t>
+  </si>
+  <si>
+    <t>Villa Lagarina - Lago di Cei</t>
+  </si>
+  <si>
+    <t>Lago di Cei, 38060 Villa Lagarina, Province of Trento</t>
+  </si>
+  <si>
+    <t>Tesero</t>
+  </si>
+  <si>
+    <t>38038 Tesero, Province of Trento</t>
+  </si>
+  <si>
+    <t>38038</t>
+  </si>
+  <si>
+    <t>Villa Lagarina, Nomi, Pomarolo</t>
+  </si>
+  <si>
+    <t>38060 Nomi, Trentino, Province of Trento</t>
+  </si>
+  <si>
+    <t>Pergine Valsugana</t>
+  </si>
+  <si>
+    <t>38057 Pergine Valsugana, Province of Trento</t>
+  </si>
+  <si>
+    <t>Ziano di Fiemme</t>
+  </si>
+  <si>
+    <t>38030 Ziano di Fiemme, Province of Trento</t>
+  </si>
+  <si>
+    <t>Avio</t>
+  </si>
+  <si>
+    <t>38063 Avio, Trentino, Province of Trento</t>
+  </si>
+  <si>
+    <t>Campitello di Fassa, Canazei</t>
+  </si>
+  <si>
+    <t>38036 Pozza di Fassa, Province of Trento</t>
+  </si>
+  <si>
+    <t>Campitello di Fassa, Canazei, Mazzin ...</t>
+  </si>
+  <si>
+    <t>38030 Mazzin, Province of Trento</t>
+  </si>
+  <si>
+    <t>Rabbi</t>
+  </si>
+  <si>
+    <t>38020 Rabbi, Province of Trento</t>
+  </si>
+  <si>
+    <t>Trento --SELF--  --SELF-- Trentino history museum foundation, the Tunnels of Piedicastello - Trento</t>
+  </si>
+  <si>
+    <t>Piedicastello, 38121 Trento, Province of Trento, Italy</t>
+  </si>
+  <si>
+    <t>Rovereto --SELF--  --SELF-- Bell of the Fallen</t>
+  </si>
+  <si>
+    <t>38068 Rovereto, Province of Trento, Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trento --SELF-- Fondazione Bruno Kessler --SELF-- </t>
+  </si>
+  <si>
+    <t>Via Sommarive, 18, 38123 Povo TN, Italy</t>
+  </si>
+  <si>
+    <t>Rovereto --SELF--  --SELF-- Depero  Futurist House of the Arts</t>
+  </si>
+  <si>
+    <t>Via dei Portici, 38, 38068 Rovereto TN, Italy</t>
   </si>
   <si>
     <t>Trento --SELF--  --SELF-- Palazzo Roccabruna</t>
   </si>
   <si>
-    <t>Via Santa Trinità, 24, 38122 Trento TN</t>
-  </si>
-  <si>
-    <t>Palazzo Roccabruna</t>
-  </si>
-  <si>
-    <t>0461 887101</t>
-  </si>
-  <si>
-    <t>http://www.palazzoroccabruna.it/</t>
-  </si>
-  <si>
-    <t>Trento --SELF--  --SELF-- Social Theatre</t>
-  </si>
-  <si>
-    <t>Via Paolo Oss-Mazzurana, 19, 38122 Trento TN</t>
-  </si>
-  <si>
-    <t>Social Theatre</t>
-  </si>
-  <si>
-    <t>0461 213862</t>
-  </si>
-  <si>
-    <t>http://www.centrosantachiara.it/</t>
-  </si>
-  <si>
-    <t>Trento --SELF--  --SELF-- Palazzo Trentini</t>
-  </si>
-  <si>
-    <t>Via Giannantonio Manci, 27, 38122 Trento TN</t>
-  </si>
-  <si>
-    <t>palazzo Trentini</t>
+    <t>Via Santa Trinità, 24, 38122 Trento TN, Italy</t>
+  </si>
+  <si>
+    <t>Cavalese --SELF--  --SELF-- Palace of the 'Magnifica Comunità di Fiemme'</t>
+  </si>
+  <si>
+    <t>38033 Cavalese, Province of Trento, Italy</t>
   </si>
   <si>
     <t>Trento --SELF--  --SELF-- Tridentum. S.A.S.S. - Underground Archaeological Site Sas</t>
   </si>
   <si>
-    <t>Piazza Cesare Battisti, 38122 Trento TN</t>
-  </si>
-  <si>
-    <t>Museo S.A.S.S. Spazio Archeologico Sotterraneo del Sas</t>
-  </si>
-  <si>
-    <t>0461 230171</t>
-  </si>
-  <si>
-    <t>https://www.cultura.trentino.it/Temi/Archeologia</t>
-  </si>
-  <si>
-    <t>Trento - Cinema Teatro Nuovo RomaCorso III Novembre, 35 – Trento</t>
-  </si>
-  <si>
-    <t>Corso 3 Novembre 1918, 35, 38122 Trento TN</t>
-  </si>
-  <si>
-    <t>Cinema Teatro Nuovo Roma</t>
-  </si>
-  <si>
-    <t>Avio --SELF--  --SELF-- Avio castle</t>
-  </si>
-  <si>
-    <t>Via al Castello, 38063 Sabbionara, Avio TN</t>
-  </si>
-  <si>
-    <t>38063</t>
-  </si>
-  <si>
-    <t>Castle of Avio</t>
-  </si>
-  <si>
-    <t>0464 684453</t>
-  </si>
-  <si>
-    <t>http://www.castellodiavio.it/</t>
-  </si>
-  <si>
-    <t>Mart, Area educazione</t>
-  </si>
-  <si>
-    <t>Corso Angelo Bettini, 43, 38068 Rovereto TN</t>
-  </si>
-  <si>
-    <t>Museum of Modern and Contemporary Art of Trento and Rovereto</t>
-  </si>
-  <si>
-    <t>0464 438887</t>
-  </si>
-  <si>
-    <t>http://www.mart.trento.it/</t>
-  </si>
-  <si>
-    <t>Mart, Rovereto</t>
-  </si>
-  <si>
-    <t>Rovereto --SELF--  --SELF-- Mart - Museum of Modern and Contemporary Art of Rovereto - Rovereto</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>10060 None, Metropolitan City of Turin</t>
-  </si>
-  <si>
-    <t>10060</t>
+    <t>Piazza Cesare Battisti, 38122 Trento TN, Italy</t>
   </si>
   <si>
     <t>Trento --SELF--  --SELF-- Civic art gallery - Trento</t>
   </si>
   <si>
-    <t>Via Dietro le Mura B, 6, 38122 Trento TN</t>
-  </si>
-  <si>
-    <t>Vetrò - Art gallery Luxury home</t>
-  </si>
-  <si>
-    <t>327 163 1980</t>
-  </si>
-  <si>
-    <t>Mart, sale espositive</t>
-  </si>
-  <si>
-    <t>Trento --SELF--  --SELF-- Cuminetti Theatre</t>
-  </si>
-  <si>
-    <t>Via alla Veduta, 8, 38122 Trento TN</t>
-  </si>
-  <si>
-    <t>Lavanderia self service Regina del Pulito snc</t>
-  </si>
-  <si>
-    <t>0461 238172</t>
-  </si>
-  <si>
-    <t>Mart, Sale espositive</t>
-  </si>
-  <si>
-    <t>Trento - Multisala G. ModenaViale S. F. d’Assisi, 8/a – Trento</t>
-  </si>
-  <si>
-    <t>Viale S. Francesco d'Assisi, 6, 38122 Trento TN</t>
-  </si>
-  <si>
-    <t>Multiplex G. Modena</t>
-  </si>
-  <si>
-    <t>Trento --SELF--  --SELF-- Sanbàpolis theatre</t>
-  </si>
-  <si>
-    <t>Via della Malpensada, 82, 38123 Trento TN</t>
-  </si>
-  <si>
-    <t>38123</t>
-  </si>
-  <si>
-    <t>Teatro SanbàPolis</t>
-  </si>
-  <si>
-    <t>Trento --SELF--  --SELF-- Muse - Science Museum - Trento</t>
-  </si>
-  <si>
-    <t>Corso del Lavoro e della Scienza, 3, 38122 Trento TN</t>
-  </si>
-  <si>
-    <t>38121</t>
-  </si>
-  <si>
-    <t>MUSE</t>
-  </si>
-  <si>
-    <t>0461 270311</t>
-  </si>
-  <si>
-    <t>https://www.muse.it/</t>
-  </si>
-  <si>
-    <t>Muse</t>
-  </si>
-  <si>
-    <t>Borgo Valsugana --SELF--  --SELF-- Arte Sella</t>
-  </si>
-  <si>
-    <t>Malga Costa, 38051 Borgo Valsugana TN</t>
-  </si>
-  <si>
-    <t>38051</t>
-  </si>
-  <si>
-    <t>Arte Sella</t>
-  </si>
-  <si>
-    <t>0461 751251</t>
-  </si>
-  <si>
-    <t>http://www.artesella.it/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trento --SELF-- Chiesa di San Francesco Saverio --SELF-- </t>
-  </si>
-  <si>
-    <t>Via Roma, 57, 38122 Trento TN</t>
-  </si>
-  <si>
-    <t>San Francesco Saverio</t>
-  </si>
-  <si>
-    <t>0461 980132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riva del Garda --SELF--  --SELF-- Mag Alto Garda museum </t>
-  </si>
-  <si>
-    <t>Piazza Cesare Battisti, 3/A, 38066 Riva del Garda TN</t>
-  </si>
-  <si>
-    <t>38066</t>
-  </si>
-  <si>
-    <t>MAG Museo Alto Garda</t>
-  </si>
-  <si>
-    <t>0464 573869</t>
-  </si>
-  <si>
-    <t>http://www.museoaltogarda.it/</t>
-  </si>
-  <si>
-    <t>Attività sul territorio</t>
-  </si>
-  <si>
-    <t>Muse, Trento</t>
-  </si>
-  <si>
-    <t>Trento --SELF--  --SELF-- Buonconsiglio Castle</t>
-  </si>
-  <si>
-    <t>Via Bernardo Clesio, 5, 38122 Trento TN</t>
-  </si>
-  <si>
-    <t>Buonconsiglio Castle Museum</t>
-  </si>
-  <si>
-    <t>0461 233770</t>
-  </si>
-  <si>
-    <t>http://www.buonconsiglio.it/</t>
-  </si>
-  <si>
-    <t>Castello del Buonconsiglio ,Via Bernardo Clesio</t>
-  </si>
-  <si>
-    <t>Teatro Sanbapolis ,Via della Malpensada</t>
-  </si>
-  <si>
-    <t>Trento --SELF--  --SELF-- Sala Sosat</t>
-  </si>
-  <si>
-    <t>Via Giovanni Battista Trener, 16, 38121 Trento TN</t>
-  </si>
-  <si>
-    <t>Ristorante Self Glenda</t>
-  </si>
-  <si>
-    <t>0461 822160</t>
-  </si>
-  <si>
-    <t>http://www.risto3.it/</t>
-  </si>
-  <si>
-    <t>Museo Geologico delle Dolomiti di Predazzo</t>
-  </si>
-  <si>
-    <t>Piazza SS. Filippo e Giacomo, 2, 38037 Predazzo TN</t>
-  </si>
-  <si>
-    <t>38037</t>
-  </si>
-  <si>
-    <t>Geological Museum of the Dolomites Predazzo</t>
-  </si>
-  <si>
-    <t>0462 500366</t>
-  </si>
-  <si>
-    <t>http://www2.muse.it/museogeologico/</t>
-  </si>
-  <si>
-    <t>Teatro Sociale ,Via Oss Mazzurana</t>
-  </si>
-  <si>
-    <t>Piedicastello ,Via Dòs Trento</t>
-  </si>
-  <si>
-    <t>Vicolo di Piedicastello &amp; Via Dòs Trento, 38122 Trento TN</t>
-  </si>
-  <si>
-    <t>Circolo ACLI GARDOLO ,Via Laurence Feininger, 4</t>
-  </si>
-  <si>
-    <t>Via Laurence Feininger, 4, 38121 Trento TN</t>
-  </si>
-  <si>
-    <t>Giardino dei Ciucioi ,Piazza Venezia, 2 ,Lavarone</t>
-  </si>
-  <si>
-    <t>Vicolo dei Ciucioi, 38015 Lavis TN</t>
-  </si>
-  <si>
-    <t>38015</t>
-  </si>
-  <si>
-    <t>Giardino dei Ciucioi</t>
-  </si>
-  <si>
-    <t>327 766 0813</t>
-  </si>
-  <si>
-    <t>http://www.ecoargentario.it/</t>
-  </si>
-  <si>
-    <t>Piazza Fiera ,Piazza di Fiera</t>
-  </si>
-  <si>
-    <t>Piazza di Fiera, 38122 Trento TN</t>
-  </si>
-  <si>
-    <t>Castello di Avio ,via al castello ,Avio</t>
-  </si>
-  <si>
-    <t>centro storico ,Via Andrea Maffei ,Riva del Garda</t>
-  </si>
-  <si>
-    <t>Viale Lutti Alberti, 7, 38066 Riva del Garda TN</t>
-  </si>
-  <si>
-    <t>Liceo Andrea Maffei</t>
-  </si>
-  <si>
-    <t>0464 553511</t>
-  </si>
-  <si>
-    <t>http://e.liceomaffei.it/</t>
-  </si>
-  <si>
-    <t>Spazio Archeologico Sotterraneo del SAS ,Piazza Cesare Battisti</t>
-  </si>
-  <si>
-    <t>Santa Massenza ,Centro storico ,Vezzano</t>
-  </si>
-  <si>
-    <t>38070 Santa Massenza, Province of Trento</t>
-  </si>
-  <si>
-    <t>38070</t>
-  </si>
-  <si>
-    <t>Bookique ,Via Torre D'Augusto</t>
-  </si>
-  <si>
-    <t>Via Torre D'Augusto, 29, 38122 Trento TN</t>
-  </si>
-  <si>
-    <t>Bookique</t>
-  </si>
-  <si>
-    <t>342 701 1498</t>
-  </si>
-  <si>
-    <t>https://bookique.net/</t>
-  </si>
-  <si>
-    <t>Distilleria Marzadro ,Strada Provinciale 90 ,Isera</t>
-  </si>
-  <si>
-    <t>Via per Brancolino, 10, 38060 Nogaredo TN</t>
-  </si>
-  <si>
-    <t>38060</t>
-  </si>
-  <si>
-    <t>Distilleria Marzadro</t>
-  </si>
-  <si>
-    <t>0464 304555</t>
-  </si>
-  <si>
-    <t>https://www.marzadro.it/</t>
-  </si>
-  <si>
-    <t>Mart - Museo di Arte Moderna e Contemporanea ,Corso Bettini ,Rovereto</t>
-  </si>
-  <si>
-    <t>centro storico ,Via Giovanni Segantini ,Arco</t>
-  </si>
-  <si>
-    <t>Via Giovanni Segantini, 75, 38062 Arco TN</t>
-  </si>
-  <si>
-    <t>38062</t>
-  </si>
-  <si>
-    <t>Appartamenti Segantini Arco</t>
-  </si>
-  <si>
-    <t>347 412 0189</t>
-  </si>
-  <si>
-    <t>http://appartamentisegantini.com/</t>
-  </si>
-  <si>
-    <t>Centro Storico ,Strada de Meida ,Pozza di Fassa</t>
-  </si>
-  <si>
-    <t>strada de Meida, 67, 38036 Pozza di Fassa TN</t>
-  </si>
-  <si>
-    <t>38036</t>
-  </si>
-  <si>
-    <t>Hotel Meida - Pozza di Fassa</t>
-  </si>
-  <si>
-    <t>0462 764283</t>
-  </si>
-  <si>
-    <t>http://www.hotelmeida.it/</t>
-  </si>
-  <si>
-    <t>parrocchia di Madonna Bianca ,Via Angelo Bettini, 11</t>
-  </si>
-  <si>
-    <t>Via Angelo Bettini, 11, 38123 Trento TN</t>
-  </si>
-  <si>
-    <t>EIT Digital Italy Co-Location Centre ,Via Sommarive, 18</t>
-  </si>
-  <si>
-    <t>1st floor Northern Building, Via Sommarive, 18, 38123 Povo TN</t>
-  </si>
-  <si>
-    <t>EIT Digital Italy</t>
-  </si>
-  <si>
-    <t>0461 314045</t>
-  </si>
-  <si>
-    <t>https://www.eitdigital.eu/</t>
-  </si>
-  <si>
-    <t>Canazei</t>
-  </si>
-  <si>
-    <t>38032 Canazei, Province of Trento</t>
-  </si>
-  <si>
-    <t>38032</t>
-  </si>
-  <si>
-    <t>Vigo di Fassa</t>
-  </si>
-  <si>
-    <t>38039 Vigo di Fassa, Province of Trento</t>
-  </si>
-  <si>
-    <t>38039</t>
-  </si>
-  <si>
-    <t>Cinema Comunale di Ossana ,Via Bartolomeo Bezzi, 12 ,Ossana</t>
-  </si>
-  <si>
-    <t>Via Bartolomeo Bezzi, 0, 38026 Ossana TN</t>
-  </si>
-  <si>
-    <t>38026</t>
-  </si>
-  <si>
-    <t>Biblioteca - Teatro Comunali</t>
-  </si>
-  <si>
-    <t>0463 752013</t>
-  </si>
-  <si>
-    <t>http://www.bibliotechevaldisole.it/biblioteche</t>
-  </si>
-  <si>
-    <t>Chiese della città ,Piazza Santa Maria Maggiore</t>
-  </si>
-  <si>
-    <t>Vicolo delle Orsoline, 1, 38122 Trento TN</t>
-  </si>
-  <si>
-    <t>Santa Maria Maggiore, Trento</t>
-  </si>
-  <si>
-    <t>0461 230037</t>
-  </si>
-  <si>
-    <t>http://www.comune.trento.it/Aree-tematiche/Turismo/Visitare/Chiese/Basilica-di-Santa-Maria-Maggiore</t>
-  </si>
-  <si>
-    <t>centro storico ,Indirizzo non disponibile ,Cavalese</t>
-  </si>
-  <si>
-    <t>Via Antoniazzi, 14, 38033 Cavalese TN</t>
-  </si>
-  <si>
-    <t>38033</t>
-  </si>
-  <si>
-    <t>Hotel Garni Laurino</t>
-  </si>
-  <si>
-    <t>0462 340151</t>
-  </si>
-  <si>
-    <t>http://www.hotelgarnilaurino.it/</t>
-  </si>
-  <si>
-    <t>Piazza Santa Maria Maggiore ,Piazza Santa Maria Maggiore</t>
-  </si>
-  <si>
-    <t>Piazza Santa Maria Maggiore, 38122 Trento TN</t>
-  </si>
-  <si>
-    <t>Bugs ,Largo Giosuè Carducci</t>
-  </si>
-  <si>
-    <t>Largo Giosuè Carducci, 51, 38122 Trento TN</t>
-  </si>
-  <si>
-    <t>Bugs Trento</t>
-  </si>
-  <si>
-    <t>http://facebook.com/bugstrento</t>
-  </si>
-  <si>
-    <t>Centro Storico ,Indirizzo non disponibile ,Pergine Valsugana</t>
-  </si>
-  <si>
-    <t>Via al Castello, 10, 38057 Pergine Valsugana TN</t>
-  </si>
-  <si>
-    <t>38057</t>
-  </si>
-  <si>
-    <t>Castel Pergine</t>
-  </si>
-  <si>
-    <t>0461 531158</t>
-  </si>
-  <si>
-    <t>http://www.castelpergine.it/it/</t>
-  </si>
-  <si>
-    <t>Teatro San Marco ,Via San Bernardino</t>
-  </si>
-  <si>
-    <t>Via S. Bernardino, 10, 38122 Trento TN</t>
-  </si>
-  <si>
-    <t>Teatro San Marco</t>
-  </si>
-  <si>
-    <t>0461 233522</t>
-  </si>
-  <si>
-    <t>https://www.teatrosanmarco.it/</t>
-  </si>
-  <si>
-    <t>Teatro di Meano ,Via delle Sugarine, 22</t>
-  </si>
-  <si>
-    <t>Via delle Sugarine, 22, 38121 Meano TN</t>
-  </si>
-  <si>
-    <t>Teatro di Meano</t>
-  </si>
-  <si>
-    <t>0461 534321</t>
-  </si>
-  <si>
-    <t>http://www.teatrodimeano.it/</t>
-  </si>
-  <si>
-    <t>Centro Storico ,Piazza del Duomo</t>
-  </si>
-  <si>
-    <t>Piazza del Duomo, Milano MI</t>
-  </si>
-  <si>
-    <t>Le Gallerie Piedicastello ,Via Dòs Trento</t>
-  </si>
-  <si>
-    <t>Piazza di Piedicastello, 38122 Trento TN</t>
-  </si>
-  <si>
-    <t>The Piedicastello Tunnel</t>
-  </si>
-  <si>
-    <t>0461 174 7000</t>
-  </si>
-  <si>
-    <t>http://fondazione.museostorico.it/index.php/Luoghi/I-luoghi-della-Fondazione/Le-Gallerie</t>
-  </si>
-  <si>
-    <t>Teatro comunale di Pergine Valsugana ,Piazza Garibaldi, 5g ,Pergine Valsugana</t>
-  </si>
-  <si>
-    <t>Piazza Garibaldi, 5G, 38057 Pergine Valsugana TN</t>
-  </si>
-  <si>
-    <t>Teatro Comunale di Pergine</t>
-  </si>
-  <si>
-    <t>http://www.teatrodipergine.it/</t>
-  </si>
-  <si>
-    <t>Castellano ,via al castello ,Villa Lagarina</t>
-  </si>
-  <si>
-    <t>Viale Lodron, 17, 38060 Castellano TN</t>
-  </si>
-  <si>
-    <t>Castle of Castellano</t>
-  </si>
-  <si>
-    <t>349 711 9977</t>
-  </si>
-  <si>
-    <t>https://www.visitrovereto.it/scopri/castelli/castello-di-castellano/</t>
-  </si>
-  <si>
-    <t>Baselga di Pine'</t>
-  </si>
-  <si>
-    <t>38042 Baselga di Pinè, Province of Trento</t>
-  </si>
-  <si>
-    <t>38042</t>
-  </si>
-  <si>
-    <t>Moena</t>
-  </si>
-  <si>
-    <t>38035 Moena, Province of Trento</t>
-  </si>
-  <si>
-    <t>38035</t>
-  </si>
-  <si>
-    <t>Centro di meditazione Kushi Ling ,Via Alle Fontane, Loc. Laghel 44 ,Arco</t>
-  </si>
-  <si>
-    <t>38062 Arco, Province of Trento</t>
-  </si>
-  <si>
-    <t>Kushi Ling</t>
-  </si>
-  <si>
-    <t>http://www.kushi-ling.com/en/</t>
-  </si>
-  <si>
-    <t>Centro Storico ,Via Giuseppe Garibaldi</t>
-  </si>
-  <si>
-    <t>Via Giuseppe Garibaldi, 10122 Torino TO</t>
-  </si>
-  <si>
-    <t>10122</t>
-  </si>
-  <si>
-    <t>Arco</t>
-  </si>
-  <si>
-    <t>Ala</t>
-  </si>
-  <si>
-    <t>38061 Ala, Province of Trento</t>
-  </si>
-  <si>
-    <t>38061</t>
-  </si>
-  <si>
-    <t>Rovereto</t>
-  </si>
-  <si>
-    <t>38068 Rovereto, Province of Trento</t>
-  </si>
-  <si>
-    <t>Canazei, Moena, Vigo di Fassa</t>
-  </si>
-  <si>
-    <t>centro storico ,Corso Bettini ,Rovereto</t>
-  </si>
-  <si>
-    <t>Corso Angelo, Corso Bettini, 64, 38068 Rovereto TN</t>
-  </si>
-  <si>
-    <t>Consorzio Rovereto In Centro</t>
-  </si>
-  <si>
-    <t>0464 424047</t>
-  </si>
-  <si>
-    <t>http://www.roveretoincentro.com/</t>
-  </si>
-  <si>
-    <t>Riva del Garda</t>
-  </si>
-  <si>
-    <t>38066 Riva del Garda, Province of Trento</t>
-  </si>
-  <si>
-    <t>centro storico ,Piaz de Ramon ,Moena</t>
-  </si>
-  <si>
-    <t>Piaz de Ramon, 59, 38035 Moena TN</t>
-  </si>
-  <si>
-    <t>Apartments Moena - Living 2000</t>
-  </si>
-  <si>
-    <t>0462 573193</t>
-  </si>
-  <si>
-    <t>http://www.moena-appartamenti.it/</t>
-  </si>
-  <si>
-    <t>Trento</t>
-  </si>
-  <si>
-    <t>Trento, Province of Trento</t>
-  </si>
-  <si>
-    <t>Parco Asburgico ,Via Guglielmo Marconi ,Levico Terme</t>
-  </si>
-  <si>
-    <t>Via Guglielmo Marconi, 38056 Levico Terme TN</t>
-  </si>
-  <si>
-    <t>38056</t>
-  </si>
-  <si>
-    <t>Parco Asburgico Secolare di Levico Terme</t>
-  </si>
-  <si>
-    <t>http://www.naturambiente.provincia.tn.it/parco_levico/</t>
-  </si>
-  <si>
-    <t>Levico Terme</t>
-  </si>
-  <si>
-    <t>38056 Levico Terme, Province of Trento</t>
-  </si>
-  <si>
-    <t>Vezzano</t>
-  </si>
-  <si>
-    <t>38070 Vezzano, Province of Trento</t>
-  </si>
-  <si>
-    <t>Trentino-Alto Adige, Italy ,Piazza di San Vigilio ,Calavino</t>
-  </si>
-  <si>
-    <t>Piazza di S. Vigilio, 38070 Santa Massenza TN</t>
-  </si>
-  <si>
-    <t>centro storico ,Via Dante Alighieri ,Tenno</t>
-  </si>
-  <si>
-    <t>Via Dante Alighieri, 18, 38060 Tenno TN</t>
-  </si>
-  <si>
-    <t>Comune di Tenno</t>
-  </si>
-  <si>
-    <t>0464 500624</t>
-  </si>
-  <si>
-    <t>http://www.comune.tenno.tn.it/</t>
-  </si>
-  <si>
-    <t>Palazzo delle Albere ,Via Roberto da Sanseverino</t>
-  </si>
-  <si>
-    <t>Via Roberto da Sanseverino, 43, 38122 Trento TN</t>
-  </si>
-  <si>
-    <t>Albere Palace</t>
-  </si>
-  <si>
-    <t>0461 496914</t>
-  </si>
-  <si>
-    <t>https://www.cultura.trentino.it/Luoghi/Tutti-i-luoghi-della-cultura/Palazzi-storici/Palazzo-delle-Albere</t>
-  </si>
-  <si>
-    <t>Brentonico</t>
-  </si>
-  <si>
-    <t>38060 Brentonico, Province of Trento</t>
-  </si>
-  <si>
-    <t>Teatro Portland ,Via Papiria, 8</t>
-  </si>
-  <si>
-    <t>Via Papiria, 8, 38122 Trento TN</t>
-  </si>
-  <si>
-    <t>Teatro Portland</t>
-  </si>
-  <si>
-    <t>0461 924470</t>
-  </si>
-  <si>
-    <t>http://www.teatroportland.it/</t>
-  </si>
-  <si>
-    <t>Torbole sul Garda - Nago</t>
-  </si>
-  <si>
-    <t>38069 Nago–Torbole, Province of Trento</t>
-  </si>
-  <si>
-    <t>38069</t>
-  </si>
-  <si>
-    <t>Fiera di Primiero, Primiero - Siror, Primiero - Imer ...</t>
-  </si>
-  <si>
-    <t>38054 Fiera di Primiero, Province of Trento</t>
-  </si>
-  <si>
-    <t>38054</t>
-  </si>
-  <si>
-    <t>Primiero - Siror</t>
-  </si>
-  <si>
-    <t>Via del Suffragio ,Via del Suffragio</t>
-  </si>
-  <si>
-    <t>Via del Suffragio, 38122 Trento TN</t>
-  </si>
-  <si>
-    <t>Rovereto, Terragnolo</t>
-  </si>
-  <si>
-    <t>Arco, Drena, Dro ...</t>
-  </si>
-  <si>
-    <t>38074 Drena, Province of Trento</t>
-  </si>
-  <si>
-    <t>38074</t>
-  </si>
-  <si>
-    <t>San Martino di Castrozza</t>
-  </si>
-  <si>
-    <t>38054 San Martino di Castrozza, Province of Trento</t>
-  </si>
-  <si>
-    <t>Marilleva</t>
-  </si>
-  <si>
-    <t>38020 Marilleva, Province of Trento</t>
-  </si>
-  <si>
-    <t>38020</t>
-  </si>
-  <si>
-    <t>Arco, Riva del Garda</t>
-  </si>
-  <si>
-    <t>Primiero - Imer</t>
-  </si>
-  <si>
-    <t>Campitello di Fassa, Canazei, Moena ...</t>
-  </si>
-  <si>
-    <t>Canazei TN</t>
-  </si>
-  <si>
-    <t>Caldes</t>
-  </si>
-  <si>
-    <t>38022 Caldes, Province of Trento</t>
-  </si>
-  <si>
-    <t>38022</t>
-  </si>
-  <si>
-    <t>Polsa, San Valentino</t>
-  </si>
-  <si>
-    <t>Piazza Polsa, 1, 38060 Polsa, Brentonico TN</t>
-  </si>
-  <si>
-    <t>Brentonico Ski</t>
-  </si>
-  <si>
-    <t>377 167 8207</t>
-  </si>
-  <si>
-    <t>http://www.brentonicoski.com/</t>
-  </si>
-  <si>
-    <t>Ristoranti della città ,Piazza del Duomo</t>
-  </si>
-  <si>
-    <t>Piazza del Duomo, 20121 Milano MI</t>
-  </si>
-  <si>
-    <t>20121</t>
-  </si>
-  <si>
-    <t>Maio Restaurant</t>
-  </si>
-  <si>
-    <t>02 885 2455</t>
-  </si>
-  <si>
-    <t>http://www.maiorestaurant.com/</t>
-  </si>
-  <si>
-    <t>Tesero</t>
-  </si>
-  <si>
-    <t>38038 Tesero, Province of Trento</t>
-  </si>
-  <si>
-    <t>38038</t>
-  </si>
-  <si>
-    <t>Centro Storico ,Piazza Gavazzi ,Pergine Valsugana</t>
-  </si>
-  <si>
-    <t>Piazza Municipio, 7, 38057 Pergine Valsugana TN</t>
-  </si>
-  <si>
-    <t>City of Pergine Valsugana</t>
-  </si>
-  <si>
-    <t>0461 502111</t>
-  </si>
-  <si>
-    <t>http://www.comune.pergine.tn.it/</t>
-  </si>
-  <si>
-    <t>Cimego</t>
-  </si>
-  <si>
-    <t>38082 Cimego, Province of Trento</t>
-  </si>
-  <si>
-    <t>38082</t>
-  </si>
-  <si>
-    <t>Faedo</t>
-  </si>
-  <si>
-    <t>38010 Faedo, Province of Trento</t>
-  </si>
-  <si>
-    <t>38010</t>
-  </si>
-  <si>
-    <t>Tenno</t>
-  </si>
-  <si>
-    <t>38060 Tenno, Province of Trento</t>
-  </si>
-  <si>
-    <t>Folgaria</t>
-  </si>
-  <si>
-    <t>38064 Folgaria, Province of Trento</t>
-  </si>
-  <si>
-    <t>38064</t>
-  </si>
-  <si>
-    <t>Lavarone, Folgaria, Luserna</t>
-  </si>
-  <si>
-    <t>38040 Luserna, Province of Trento</t>
-  </si>
-  <si>
-    <t>38040</t>
-  </si>
-  <si>
-    <t>Bosentino</t>
-  </si>
-  <si>
-    <t>38049 Bosentino, Province of Trento</t>
-  </si>
-  <si>
-    <t>38049</t>
-  </si>
-  <si>
-    <t>Vallarsa</t>
-  </si>
-  <si>
-    <t>38060 Vallarsa, Province of Trento</t>
-  </si>
-  <si>
-    <t>Cavalese, Alpe Cermis, Pampeago-Predazzo-Obereggen ...</t>
-  </si>
-  <si>
-    <t>Cermis, 38033 Cavalese, Province of Trento</t>
-  </si>
-  <si>
-    <t>Mori</t>
-  </si>
-  <si>
-    <t>38065 Mori, Province of Trento</t>
-  </si>
-  <si>
-    <t>38065</t>
-  </si>
-  <si>
-    <t>Campitello di Fassa</t>
-  </si>
-  <si>
-    <t>38031 Campitello di Fassa, Province of Trento</t>
-  </si>
-  <si>
-    <t>38031</t>
-  </si>
-  <si>
-    <t>Folgarida, Marilleva, Passo del Tonale ...</t>
-  </si>
-  <si>
-    <t>Tonale Pass, 25056 Ponte di Legno, Province of Brescia</t>
-  </si>
-  <si>
-    <t>25056</t>
-  </si>
-  <si>
-    <t>Dro</t>
-  </si>
-  <si>
-    <t>38074 Dro, Province of Trento</t>
-  </si>
-  <si>
-    <t>Cavalese</t>
-  </si>
-  <si>
-    <t>38033 Cavalese, Province of Trento</t>
-  </si>
-  <si>
-    <t>Predazzo</t>
-  </si>
-  <si>
-    <t>38037 Predazzo, Province of Trento</t>
-  </si>
-  <si>
-    <t>Pergine Valsugana</t>
-  </si>
-  <si>
-    <t>38057 Pergine Valsugana, Province of Trento</t>
-  </si>
-  <si>
-    <t>Campitello di Fassa, Canazei, Mazzin ...</t>
-  </si>
-  <si>
-    <t>38030 Mazzin, Province of Trento</t>
-  </si>
-  <si>
-    <t>38030</t>
-  </si>
-  <si>
-    <t>Villa Lagarina - Lago di Cei</t>
-  </si>
-  <si>
-    <t>Lago di Cei, 38060 Villa Lagarina, Province of Trento</t>
-  </si>
-  <si>
-    <t>Denno</t>
-  </si>
-  <si>
-    <t>38010 Denno, Province of Trento</t>
-  </si>
-  <si>
-    <t>Commezzadura</t>
-  </si>
-  <si>
-    <t>38020 Commezzadura, Province of Trento</t>
-  </si>
-  <si>
-    <t>Varena</t>
-  </si>
-  <si>
-    <t>38030 Varena, Trentino, Province of Trento</t>
-  </si>
-  <si>
-    <t>Fondo</t>
-  </si>
-  <si>
-    <t>38013 Fondo, Province of Trento</t>
-  </si>
-  <si>
-    <t>38013</t>
-  </si>
-  <si>
-    <t>Ossana</t>
-  </si>
-  <si>
-    <t>38026 Ossana, Province of Trento</t>
-  </si>
-  <si>
-    <t>Avio</t>
-  </si>
-  <si>
-    <t>38063 Avio, Trentino, Province of Trento</t>
-  </si>
-  <si>
-    <t>Campitello di Fassa, Canazei</t>
-  </si>
-  <si>
-    <t>38036 Pozza di Fassa, Province of Trento</t>
-  </si>
-  <si>
-    <t>Ziano di Fiemme</t>
-  </si>
-  <si>
-    <t>38030 Ziano di Fiemme, Province of Trento</t>
-  </si>
-  <si>
-    <t>Rabbi</t>
-  </si>
-  <si>
-    <t>38020 Rabbi, Province of Trento</t>
-  </si>
-  <si>
-    <t>Villa Lagarina, Nomi, Pomarolo</t>
-  </si>
-  <si>
-    <t>38060 Nomi, Trentino, Province of Trento</t>
-  </si>
-  <si>
-    <t>Trento --SELF--  --SELF-- Trentino history museum foundation, the Tunnels of Piedicastello - Trento</t>
-  </si>
-  <si>
-    <t>Piedicastello, 38121 Trento, Province of Trento, Italy</t>
-  </si>
-  <si>
-    <t>Cavalese --SELF--  --SELF-- Palace of the 'Magnifica Comunità di Fiemme'</t>
-  </si>
-  <si>
-    <t>38033 Cavalese, Province of Trento, Italy</t>
-  </si>
-  <si>
-    <t>Rovereto --SELF--  --SELF-- Bell of the Fallen</t>
-  </si>
-  <si>
-    <t>38068 Rovereto, Province of Trento, Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trento --SELF-- Fondazione Bruno Kessler --SELF-- </t>
-  </si>
-  <si>
-    <t>Via alla Veduta, 8, 38122 Trento TN, Italy</t>
+    <t>Via Dietro le Mura B, 6, 38122 Trento TN, Italy</t>
   </si>
   <si>
     <t>Trento --SELF--  --SELF-- Theatre Auditorium</t>
@@ -1274,34 +1265,40 @@
     <t>Trento, Province of Trento, Italy</t>
   </si>
   <si>
-    <t>Rovereto --SELF--  --SELF-- Depero  Futurist House of the Arts</t>
-  </si>
-  <si>
-    <t>Via dei Portici, 38, 38068 Rovereto TN, Italy</t>
-  </si>
-  <si>
     <t>Rovereto --SELF--  --SELF-- Theatre Auditorium Fausto Melotti</t>
   </si>
   <si>
     <t>Corso Bettini, 43, 38068 Rovereto TN, Italy</t>
   </si>
   <si>
+    <t>Maurina ,Indirizzo non disponibile ,Spormaggiore</t>
+  </si>
+  <si>
+    <t>38010 Maurina, Province of Trento, Italy</t>
+  </si>
+  <si>
+    <t>Centro Storico ,Indirizzo non disponibile ,Cimego</t>
+  </si>
+  <si>
+    <t>38082 Cimego, Province of Trento, Italy</t>
+  </si>
+  <si>
+    <t>Centro Storico ,Indirizzo non disponibile ,Ossana</t>
+  </si>
+  <si>
+    <t>38026 Ossana, Province of Trento, Italy</t>
+  </si>
+  <si>
     <t>centro storico ,Indirizzo non disponibile ,Siror</t>
   </si>
   <si>
     <t>38054 Siror, Province of Trento, Italy</t>
   </si>
   <si>
-    <t>Centro Storico ,Indirizzo non disponibile ,Ossana</t>
-  </si>
-  <si>
-    <t>38026 Ossana, Province of Trento, Italy</t>
-  </si>
-  <si>
-    <t>Centro Storico ,Indirizzo non disponibile ,Cimego</t>
-  </si>
-  <si>
-    <t>38082 Cimego, Province of Trento, Italy</t>
+    <t>Centro Storico ,Indirizzo non disponibile ,Vezzano</t>
+  </si>
+  <si>
+    <t>38070 Vezzano, Province of Trento, Italy</t>
   </si>
   <si>
     <t>Centro Storico ,Indirizzo non disponibile ,Ledro</t>
@@ -1311,18 +1308,6 @@
   </si>
   <si>
     <t>38067</t>
-  </si>
-  <si>
-    <t>Centro Storico ,Indirizzo non disponibile ,Vezzano</t>
-  </si>
-  <si>
-    <t>38070 Vezzano, Province of Trento, Italy</t>
-  </si>
-  <si>
-    <t>Maurina ,Indirizzo non disponibile ,Spormaggiore</t>
-  </si>
-  <si>
-    <t>38010 Maurina, Province of Trento, Italy</t>
   </si>
   <si>
     <t>centro storico ,piazza Cesare Battisti ,Tesero</t>
@@ -1482,10 +1467,10 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46.06987820000001</v>
+        <v>46.0614157</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>11.1240854</v>
+        <v>11.1248262</v>
       </c>
       <c r="D3"/>
       <c r="E3" s="4" t="s">
@@ -1522,10 +1507,10 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46.066349</v>
+        <v>46.06987820000001</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>11.123444</v>
+        <v>11.1240854</v>
       </c>
       <c r="D4"/>
       <c r="E4" s="4" t="s">
@@ -1544,10 +1529,10 @@
         <v>30</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>27</v>
@@ -1559,17 +1544,17 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>46.06939060000001</v>
+        <v>46.06688049999999</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>11.1225996</v>
+        <v>11.1255992</v>
       </c>
       <c r="D5"/>
       <c r="E5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>18</v>
@@ -1581,13 +1566,13 @@
         <v>23</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>27</v>
@@ -1599,7 +1584,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>46.0700733</v>
@@ -1609,7 +1594,7 @@
       </c>
       <c r="D6"/>
       <c r="E6" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>18</v>
@@ -1621,7 +1606,7 @@
         <v>23</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
@@ -1635,35 +1620,35 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>46.0695538</v>
+        <v>46.0626048</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>11.1236897</v>
+        <v>11.1145374</v>
       </c>
       <c r="D7"/>
       <c r="E7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>27</v>
@@ -1675,17 +1660,17 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>46.0614157</v>
+        <v>46.0456605</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>11.1248262</v>
+        <v>11.1330785</v>
       </c>
       <c r="D8"/>
       <c r="E8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>18</v>
@@ -1694,17 +1679,13 @@
         <v>19</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
       <c r="L8" s="4" t="s">
         <v>27</v>
       </c>
@@ -1715,35 +1696,35 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45.7468494</v>
+        <v>46.06939060000001</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>10.9518518</v>
+        <v>11.1225996</v>
       </c>
       <c r="D9"/>
       <c r="E9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>27</v>
@@ -1755,17 +1736,17 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45.8939992</v>
+        <v>46.06939060000001</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>11.0446889</v>
+        <v>11.1225996</v>
       </c>
       <c r="D10"/>
       <c r="E10" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>18</v>
@@ -1774,16 +1755,16 @@
         <v>19</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>27</v>
@@ -1795,17 +1776,17 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45.8939992</v>
+        <v>46.0456605</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>11.0446889</v>
+        <v>11.1330785</v>
       </c>
       <c r="D11"/>
       <c r="E11" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>18</v>
@@ -1814,17 +1795,13 @@
         <v>19</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>59</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11"/>
       <c r="L11" s="4" t="s">
         <v>27</v>
       </c>
@@ -1835,36 +1812,34 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45.8939992</v>
+        <v>46.069896</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>11.0446889</v>
+        <v>11.1211644</v>
       </c>
       <c r="D12"/>
       <c r="E12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="K12"/>
       <c r="L12" s="4" t="s">
         <v>27</v>
       </c>
@@ -1875,31 +1850,39 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44.9334927</v>
+        <v>45.7468494</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>7.540749399999998</v>
+        <v>10.9518518</v>
       </c>
       <c r="D13"/>
       <c r="E13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
+      <c r="L13" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
@@ -1907,26 +1890,26 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>46.068653</v>
+        <v>45.88436400000001</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>11.1269701</v>
+        <v>10.8423169</v>
       </c>
       <c r="D14"/>
       <c r="E14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>67</v>
@@ -1934,7 +1917,9 @@
       <c r="J14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K14"/>
+      <c r="K14" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="L14" s="4" t="s">
         <v>27</v>
       </c>
@@ -1945,17 +1930,17 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45.8939992</v>
+        <v>46.0626048</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>11.0446889</v>
+        <v>11.1145374</v>
       </c>
       <c r="D15"/>
       <c r="E15" s="4" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>18</v>
@@ -1964,16 +1949,16 @@
         <v>19</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>27</v>
@@ -1985,17 +1970,17 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>46.0758275</v>
+        <v>46.0626048</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>11.1445428</v>
+        <v>11.1145374</v>
       </c>
       <c r="D16"/>
       <c r="E16" s="4" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>18</v>
@@ -2004,15 +1989,17 @@
         <v>19</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16"/>
+        <v>41</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="L16" s="4" t="s">
         <v>27</v>
       </c>
@@ -2023,17 +2010,17 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45.8939992</v>
+        <v>46.0626048</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>11.0446889</v>
+        <v>11.1145374</v>
       </c>
       <c r="D17"/>
       <c r="E17" s="4" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>18</v>
@@ -2042,16 +2029,16 @@
         <v>19</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>27</v>
@@ -2063,35 +2050,35 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>46.06688049999999</v>
+        <v>46.0943305</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>11.1255992</v>
+        <v>11.1162386</v>
       </c>
       <c r="D18"/>
       <c r="E18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>27</v>
@@ -2106,10 +2093,10 @@
         <v>78</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>46.0456605</v>
+        <v>46.06499039999999</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>11.1330785</v>
+        <v>11.1247026</v>
       </c>
       <c r="D19"/>
       <c r="E19" s="4" t="s">
@@ -2122,16 +2109,12 @@
         <v>19</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>81</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
-      <c r="L19" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="L19"/>
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
@@ -2139,35 +2122,35 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>46.0626048</v>
+        <v>46.07154999999999</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>11.1145374</v>
+        <v>11.126608</v>
       </c>
       <c r="D20"/>
       <c r="E20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>27</v>
@@ -2179,35 +2162,35 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>46.0626048</v>
+        <v>46.07154999999999</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>11.1145374</v>
+        <v>11.126608</v>
       </c>
       <c r="D21"/>
       <c r="E21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="4" t="s">
+      <c r="K21" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>27</v>
@@ -2219,35 +2202,35 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>46.002799</v>
+        <v>45.8939992</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>11.369018</v>
+        <v>11.0446889</v>
       </c>
       <c r="D22"/>
       <c r="E22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>27</v>
@@ -2259,17 +2242,17 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>46.069896</v>
+        <v>45.8939992</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>11.1211644</v>
+        <v>11.0446889</v>
       </c>
       <c r="D23"/>
       <c r="E23" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>18</v>
@@ -2278,15 +2261,17 @@
         <v>19</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K23"/>
+        <v>89</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="L23" s="4" t="s">
         <v>27</v>
       </c>
@@ -2297,17 +2282,17 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45.88436400000001</v>
+        <v>45.8939992</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>10.8423169</v>
+        <v>11.0446889</v>
       </c>
       <c r="D24"/>
       <c r="E24" s="4" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>18</v>
@@ -2316,16 +2301,16 @@
         <v>19</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>27</v>
@@ -2337,17 +2322,17 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>46.0626048</v>
+        <v>46.002799</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>11.1145374</v>
+        <v>11.369018</v>
       </c>
       <c r="D25"/>
       <c r="E25" s="4" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>18</v>
@@ -2356,16 +2341,16 @@
         <v>19</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>27</v>
@@ -2377,17 +2362,17 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>46.0626048</v>
+        <v>46.068487</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>11.1145374</v>
+        <v>11.1188283</v>
       </c>
       <c r="D26"/>
       <c r="E26" s="4" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>18</v>
@@ -2396,20 +2381,12 @@
         <v>19</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
       <c r="M26"/>
       <c r="N26"/>
       <c r="O26"/>
@@ -2417,17 +2394,17 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>46.07154999999999</v>
+        <v>46.0730057</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>11.126608</v>
+        <v>11.1264776</v>
       </c>
       <c r="D27"/>
       <c r="E27" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>18</v>
@@ -2439,13 +2416,13 @@
         <v>23</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>27</v>
@@ -2457,17 +2434,17 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>46.07154999999999</v>
+        <v>45.8939992</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>11.126608</v>
+        <v>11.0446889</v>
       </c>
       <c r="D28"/>
       <c r="E28" s="4" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>18</v>
@@ -2476,16 +2453,16 @@
         <v>19</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>27</v>
@@ -2497,17 +2474,17 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>46.0456605</v>
+        <v>45.8939992</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>11.1330785</v>
+        <v>11.0446889</v>
       </c>
       <c r="D29"/>
       <c r="E29" s="4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>18</v>
@@ -2516,13 +2493,17 @@
         <v>19</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J29"/>
-      <c r="K29"/>
+        <v>88</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="L29" s="4" t="s">
         <v>27</v>
       </c>
@@ -2533,17 +2514,17 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>46.0943305</v>
+        <v>44.9334927</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>11.1162386</v>
+        <v>7.540749399999998</v>
       </c>
       <c r="D30"/>
       <c r="E30" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>18</v>
@@ -2552,20 +2533,12 @@
         <v>19</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
       <c r="M30"/>
       <c r="N30"/>
       <c r="O30"/>
@@ -2573,17 +2546,17 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>46.31214229999999</v>
+        <v>46.1080128</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>11.6035392</v>
+        <v>11.1115948</v>
       </c>
       <c r="D31"/>
       <c r="E31" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>18</v>
@@ -2592,20 +2565,12 @@
         <v>19</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
       <c r="M31"/>
       <c r="N31"/>
       <c r="O31"/>
@@ -2613,17 +2578,17 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>46.06939060000001</v>
+        <v>46.31214229999999</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>11.1225996</v>
+        <v>11.6035392</v>
       </c>
       <c r="D32"/>
       <c r="E32" s="4" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>18</v>
@@ -2632,16 +2597,16 @@
         <v>19</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>27</v>
@@ -2653,17 +2618,17 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>46.0716484</v>
+        <v>45.7468494</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>11.1149877</v>
+        <v>10.9518518</v>
       </c>
       <c r="D33"/>
       <c r="E33" s="4" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>18</v>
@@ -2672,12 +2637,20 @@
         <v>19</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
+        <v>60</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
@@ -2685,17 +2658,17 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>46.1080128</v>
+        <v>45.8939992</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>11.1115948</v>
+        <v>11.0446889</v>
       </c>
       <c r="D34"/>
       <c r="E34" s="4" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>18</v>
@@ -2704,12 +2677,20 @@
         <v>19</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
+        <v>20</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="M34"/>
       <c r="N34"/>
       <c r="O34"/>
@@ -2717,17 +2698,17 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>46.1387805</v>
+        <v>45.9089878</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>11.1179099</v>
+        <v>11.0281386</v>
       </c>
       <c r="D35"/>
       <c r="E35" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>18</v>
@@ -2736,16 +2717,16 @@
         <v>19</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>27</v>
@@ -2757,17 +2738,17 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>46.06499039999999</v>
+        <v>46.37617900000001</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>11.1247026</v>
+        <v>11.660669</v>
       </c>
       <c r="D36"/>
       <c r="E36" s="4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>18</v>
@@ -2776,12 +2757,20 @@
         <v>19</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
+        <v>129</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="M36"/>
       <c r="N36"/>
       <c r="O36"/>
@@ -2789,17 +2778,17 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45.7468494</v>
+        <v>46.0677984</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>10.9518518</v>
+        <v>11.151339</v>
       </c>
       <c r="D37"/>
       <c r="E37" s="4" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>18</v>
@@ -2808,16 +2797,16 @@
         <v>19</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>27</v>
@@ -2829,35 +2818,33 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45.887436</v>
+        <v>46.06845670000001</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>10.844791</v>
+        <v>11.1252337</v>
       </c>
       <c r="D38"/>
       <c r="E38" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I38" s="4" t="s">
+      <c r="J38"/>
+      <c r="K38" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>27</v>
@@ -2869,17 +2856,17 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>46.0695538</v>
+        <v>46.0716484</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>11.1236897</v>
+        <v>11.1149877</v>
       </c>
       <c r="D39"/>
       <c r="E39" s="4" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>18</v>
@@ -2888,20 +2875,12 @@
         <v>19</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
       <c r="M39"/>
       <c r="N39"/>
       <c r="O39"/>
@@ -2909,31 +2888,39 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>46.06837090000001</v>
+        <v>46.071672</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>10.9817449</v>
+        <v>11.1136268</v>
       </c>
       <c r="D40"/>
       <c r="E40" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" s="4" t="s">
+      <c r="J40" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
+      <c r="K40" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="M40"/>
       <c r="N40"/>
       <c r="O40"/>
@@ -2941,17 +2928,17 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>46.0730057</v>
+        <v>46.05919919999999</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>11.1264776</v>
+        <v>11.249821</v>
       </c>
       <c r="D41"/>
       <c r="E41" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>18</v>
@@ -2960,16 +2947,16 @@
         <v>19</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>27</v>
@@ -2981,17 +2968,17 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>45.9089878</v>
+        <v>45.887436</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>11.0281386</v>
+        <v>10.844791</v>
       </c>
       <c r="D42"/>
       <c r="E42" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>18</v>
@@ -3000,16 +2987,16 @@
         <v>19</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>27</v>
@@ -3021,17 +3008,17 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>45.8939992</v>
+        <v>46.06939060000001</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>11.0446889</v>
+        <v>11.1225996</v>
       </c>
       <c r="D43"/>
       <c r="E43" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>18</v>
@@ -3040,16 +3027,16 @@
         <v>19</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>27</v>
@@ -3061,17 +3048,17 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>45.9194328</v>
+        <v>46.1387805</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>10.8873446</v>
+        <v>11.1179099</v>
       </c>
       <c r="D44"/>
       <c r="E44" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>18</v>
@@ -3080,16 +3067,16 @@
         <v>19</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>27</v>
@@ -3101,17 +3088,17 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>46.4300636</v>
+        <v>45.92024029999999</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>11.6915665</v>
+        <v>10.8324822</v>
       </c>
       <c r="D45"/>
       <c r="E45" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>18</v>
@@ -3120,7 +3107,7 @@
         <v>19</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>169</v>
@@ -3144,10 +3131,10 @@
         <v>172</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>46.0415587</v>
+        <v>46.0638188</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>11.1329949</v>
+        <v>11.1287118</v>
       </c>
       <c r="D46"/>
       <c r="E46" s="4" t="s">
@@ -3160,12 +3147,20 @@
         <v>19</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
+        <v>23</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="M46"/>
       <c r="N46"/>
       <c r="O46"/>
@@ -3173,17 +3168,17 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>46.0677984</v>
+        <v>46.0415587</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>11.151339</v>
+        <v>11.1329949</v>
       </c>
       <c r="D47"/>
       <c r="E47" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>18</v>
@@ -3192,20 +3187,12 @@
         <v>19</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
       <c r="M47"/>
       <c r="N47"/>
       <c r="O47"/>
@@ -3216,10 +3203,10 @@
         <v>179</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>46.4767277</v>
+        <v>46.4300636</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>11.7703015</v>
+        <v>11.6915665</v>
       </c>
       <c r="D48"/>
       <c r="E48" s="4" t="s">
@@ -3234,10 +3221,18 @@
       <c r="H48" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
+      <c r="I48" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="M48"/>
       <c r="N48"/>
       <c r="O48"/>
@@ -3245,17 +3240,17 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>46.42086339999999</v>
+        <v>46.060537</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>11.6748775</v>
+        <v>11.2406332</v>
       </c>
       <c r="D49"/>
       <c r="E49" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>18</v>
@@ -3264,12 +3259,20 @@
         <v>19</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
+        <v>151</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="M49"/>
       <c r="N49"/>
       <c r="O49"/>
@@ -3277,17 +3280,17 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>46.3091923</v>
+        <v>45.9268706</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>10.7312179</v>
+        <v>10.9097607</v>
       </c>
       <c r="D50"/>
       <c r="E50" s="4" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>18</v>
@@ -3296,20 +3299,12 @@
         <v>19</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
       <c r="M50"/>
       <c r="N50"/>
       <c r="O50"/>
@@ -3317,17 +3312,17 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>46.0686385</v>
+        <v>46.2896974</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>11.1194609</v>
+        <v>11.4600364</v>
       </c>
       <c r="D51"/>
       <c r="E51" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>18</v>
@@ -3336,16 +3331,16 @@
         <v>19</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>27</v>
@@ -3357,17 +3352,17 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>46.2896974</v>
+        <v>46.1268463</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>11.4600364</v>
+        <v>11.1163055</v>
       </c>
       <c r="D52"/>
       <c r="E52" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>18</v>
@@ -3376,16 +3371,16 @@
         <v>19</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>198</v>
+        <v>39</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L52" s="4" t="s">
         <v>27</v>
@@ -3397,17 +3392,17 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>46.068487</v>
+        <v>46.0701296</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>11.1188283</v>
+        <v>11.1117611</v>
       </c>
       <c r="D53"/>
       <c r="E53" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>18</v>
@@ -3416,12 +3411,20 @@
         <v>19</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
+        <v>39</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="M53"/>
       <c r="N53"/>
       <c r="O53"/>
@@ -3429,17 +3432,17 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>46.06845670000001</v>
+        <v>46.0688273</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>11.1252337</v>
+        <v>10.9824757</v>
       </c>
       <c r="D54"/>
       <c r="E54" s="4" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>18</v>
@@ -3448,18 +3451,12 @@
         <v>19</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>206</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="I54"/>
       <c r="J54"/>
-      <c r="K54" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="L54" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="K54"/>
+      <c r="L54"/>
       <c r="M54"/>
       <c r="N54"/>
       <c r="O54"/>
@@ -3467,17 +3464,17 @@
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>46.05919919999999</v>
+        <v>46.0631566</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>11.249821</v>
+        <v>11.1137877</v>
       </c>
       <c r="D55"/>
       <c r="E55" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>18</v>
@@ -3486,16 +3483,16 @@
         <v>19</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>210</v>
+        <v>39</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>27</v>
@@ -3507,17 +3504,17 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>46.0638188</v>
+        <v>46.0686385</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>11.1287118</v>
+        <v>11.1194609</v>
       </c>
       <c r="D56"/>
       <c r="E56" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>18</v>
@@ -3529,13 +3526,13 @@
         <v>23</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L56" s="4" t="s">
         <v>27</v>
@@ -3547,17 +3544,17 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>46.1268463</v>
+        <v>46.3091923</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>11.1163055</v>
+        <v>10.7312179</v>
       </c>
       <c r="D57"/>
       <c r="E57" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>18</v>
@@ -3566,16 +3563,16 @@
         <v>19</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>84</v>
+        <v>224</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L57" s="4" t="s">
         <v>27</v>
@@ -3587,17 +3584,17 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>45.4636991</v>
+        <v>45.88919839999999</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>9.1907068</v>
+        <v>10.8430696</v>
       </c>
       <c r="D58"/>
       <c r="E58" s="4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>18</v>
@@ -3605,7 +3602,9 @@
       <c r="G58" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H58"/>
+      <c r="H58" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58"/>
@@ -3617,17 +3616,17 @@
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>46.071672</v>
+        <v>45.87782430000001</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>11.1136268</v>
+        <v>10.8908516</v>
       </c>
       <c r="D59"/>
       <c r="E59" s="4" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>18</v>
@@ -3636,20 +3635,12 @@
         <v>19</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
       <c r="M59"/>
       <c r="N59"/>
       <c r="O59"/>
@@ -3657,17 +3648,17 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>46.0622777</v>
+        <v>46.0802175</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>11.2390965</v>
+        <v>11.0014092</v>
       </c>
       <c r="D60"/>
       <c r="E60" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>18</v>
@@ -3676,20 +3667,12 @@
         <v>19</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="L60" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
       <c r="M60"/>
       <c r="N60"/>
       <c r="O60"/>
@@ -3700,10 +3683,10 @@
         <v>235</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>45.9211919</v>
+        <v>45.8927082</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>11.0064004</v>
+        <v>11.0436527</v>
       </c>
       <c r="D61"/>
       <c r="E61" s="4" t="s">
@@ -3716,7 +3699,7 @@
         <v>19</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>237</v>
@@ -3740,10 +3723,10 @@
         <v>240</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>46.1243042</v>
+        <v>46.0622777</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>11.2574845</v>
+        <v>11.2390965</v>
       </c>
       <c r="D62"/>
       <c r="E62" s="4" t="s">
@@ -3756,12 +3739,20 @@
         <v>19</v>
       </c>
       <c r="H62" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I62" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
+      <c r="J62" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="M62"/>
       <c r="N62"/>
       <c r="O62"/>
@@ -3769,17 +3760,17 @@
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>46.37642</v>
+        <v>45.9413715</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>11.6615999</v>
+        <v>10.8860869</v>
       </c>
       <c r="D63"/>
       <c r="E63" s="4" t="s">
-        <v>244</v>
+        <v>191</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>18</v>
@@ -3788,12 +3779,18 @@
         <v>19</v>
       </c>
       <c r="H63" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I63" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="I63"/>
       <c r="J63"/>
-      <c r="K63"/>
-      <c r="L63"/>
+      <c r="K63" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="M63"/>
       <c r="N63"/>
       <c r="O63"/>
@@ -3801,17 +3798,17 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>45.9413715</v>
+        <v>46.298827</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>10.8860869</v>
+        <v>10.811343</v>
       </c>
       <c r="D64"/>
       <c r="E64" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>18</v>
@@ -3820,18 +3817,12 @@
         <v>19</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>248</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="I64"/>
       <c r="J64"/>
-      <c r="K64" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="L64" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="K64"/>
+      <c r="L64"/>
       <c r="M64"/>
       <c r="N64"/>
       <c r="O64"/>
@@ -3842,10 +3833,10 @@
         <v>250</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>45.0733586</v>
+        <v>45.89096</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>7.6789807</v>
+        <v>11.0401399</v>
       </c>
       <c r="D65"/>
       <c r="E65" s="4" t="s">
@@ -3858,7 +3849,7 @@
         <v>19</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="I65"/>
       <c r="J65"/>
@@ -3871,17 +3862,17 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>45.9268706</v>
+        <v>46.37642</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>10.9097607</v>
+        <v>11.6615999</v>
       </c>
       <c r="D66"/>
       <c r="E66" s="4" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>18</v>
@@ -3890,7 +3881,7 @@
         <v>19</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="I66"/>
       <c r="J66"/>
@@ -3906,10 +3897,10 @@
         <v>254</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>45.7625639</v>
+        <v>46.1757686</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>11.0051732</v>
+        <v>11.8283805</v>
       </c>
       <c r="D67"/>
       <c r="E67" s="4" t="s">
@@ -3938,10 +3929,10 @@
         <v>257</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>45.89096</v>
+        <v>46.26176419999999</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>11.0401399</v>
+        <v>11.8002183</v>
       </c>
       <c r="D68"/>
       <c r="E68" s="4" t="s">
@@ -3954,7 +3945,7 @@
         <v>19</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="I68"/>
       <c r="J68"/>
@@ -3970,14 +3961,14 @@
         <v>259</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>46.42086339999999</v>
+        <v>45.7625639</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>11.6748775</v>
+        <v>11.0051732</v>
       </c>
       <c r="D69"/>
       <c r="E69" s="4" t="s">
-        <v>183</v>
+        <v>260</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>18</v>
@@ -3986,7 +3977,7 @@
         <v>19</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>184</v>
+        <v>261</v>
       </c>
       <c r="I69"/>
       <c r="J69"/>
@@ -3999,17 +3990,17 @@
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>45.8927082</v>
+        <v>45.89096</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>11.0436527</v>
+        <v>11.0401399</v>
       </c>
       <c r="D70"/>
       <c r="E70" s="4" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>18</v>
@@ -4020,18 +4011,10 @@
       <c r="H70" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I70" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="L70" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
       <c r="M70"/>
       <c r="N70"/>
       <c r="O70"/>
@@ -4039,31 +4022,39 @@
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>45.88919839999999</v>
+        <v>45.9211919</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>10.8430696</v>
+        <v>11.0064004</v>
       </c>
       <c r="D71"/>
       <c r="E71" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J71" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F71" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71"/>
+      <c r="K71" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="M71"/>
       <c r="N71"/>
       <c r="O71"/>
@@ -4071,17 +4062,17 @@
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>46.37617900000001</v>
+        <v>46.06837090000001</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>11.660669</v>
+        <v>10.9817449</v>
       </c>
       <c r="D72"/>
       <c r="E72" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>18</v>
@@ -4090,20 +4081,12 @@
         <v>19</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="K72" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="L72" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
       <c r="M72"/>
       <c r="N72"/>
       <c r="O72"/>
@@ -4111,17 +4094,17 @@
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>46.0747793</v>
+        <v>46.1757686</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>11.1217486</v>
+        <v>11.8283805</v>
       </c>
       <c r="D73"/>
       <c r="E73" s="4" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>18</v>
@@ -4129,7 +4112,9 @@
       <c r="G73" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H73"/>
+      <c r="H73" s="4" t="s">
+        <v>256</v>
+      </c>
       <c r="I73"/>
       <c r="J73"/>
       <c r="K73"/>
@@ -4141,33 +4126,35 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>46.0097207</v>
+        <v>45.464794</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>11.3061366</v>
+        <v>9.191839000000002</v>
       </c>
       <c r="D74"/>
       <c r="E74" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J74" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="F74" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="4" t="s">
+      <c r="K74" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="J74"/>
-      <c r="K74" s="4" t="s">
-        <v>278</v>
       </c>
       <c r="L74" s="4" t="s">
         <v>27</v>
@@ -4179,17 +4166,17 @@
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>46.01302399999999</v>
+        <v>45.9708209</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>11.2977599</v>
+        <v>10.9456656</v>
       </c>
       <c r="D75"/>
       <c r="E75" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>18</v>
@@ -4198,7 +4185,7 @@
         <v>19</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="I75"/>
       <c r="J75"/>
@@ -4211,31 +4198,39 @@
     </row>
     <row r="76">
       <c r="A76" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>46.0802175</v>
+        <v>46.0695538</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>11.0014092</v>
+        <v>11.1236897</v>
       </c>
       <c r="D76"/>
       <c r="E76" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I76" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="F76" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="I76"/>
-      <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76"/>
+      <c r="J76" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="M76"/>
       <c r="N76"/>
       <c r="O76"/>
@@ -4243,17 +4238,17 @@
     </row>
     <row r="77">
       <c r="A77" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>46.0688273</v>
+        <v>46.1757686</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>10.9824757</v>
+        <v>11.8283805</v>
       </c>
       <c r="D77"/>
       <c r="E77" s="4" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>18</v>
@@ -4262,7 +4257,7 @@
         <v>19</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>147</v>
+        <v>256</v>
       </c>
       <c r="I77"/>
       <c r="J77"/>
@@ -4275,17 +4270,17 @@
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>45.92024029999999</v>
+        <v>46.2564381</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>10.8324822</v>
+        <v>10.5808235</v>
       </c>
       <c r="D78"/>
       <c r="E78" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>18</v>
@@ -4294,20 +4289,12 @@
         <v>19</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="J78" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="K78" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="L78" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
       <c r="M78"/>
       <c r="N78"/>
       <c r="O78"/>
@@ -4315,39 +4302,31 @@
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>46.0631566</v>
+        <v>46.42086339999999</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>11.1137877</v>
+        <v>11.6748775</v>
       </c>
       <c r="D79"/>
       <c r="E79" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="F79" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="L79" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
       <c r="M79"/>
       <c r="N79"/>
       <c r="O79"/>
@@ -4355,17 +4334,17 @@
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>45.81712659999999</v>
+        <v>45.0733586</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>10.9495574</v>
+        <v>7.6789807</v>
       </c>
       <c r="D80"/>
       <c r="E80" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>18</v>
@@ -4374,7 +4353,7 @@
         <v>19</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>155</v>
+        <v>294</v>
       </c>
       <c r="I80"/>
       <c r="J80"/>
@@ -4387,35 +4366,35 @@
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>46.0701296</v>
+        <v>45.9194328</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>11.1117611</v>
+        <v>10.8873446</v>
       </c>
       <c r="D81"/>
       <c r="E81" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="J81" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="F81" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I81" s="4" t="s">
+      <c r="K81" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>301</v>
       </c>
       <c r="L81" s="4" t="s">
         <v>27</v>
@@ -4427,17 +4406,17 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>45.87782430000001</v>
+        <v>46.01302399999999</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>10.8908516</v>
+        <v>11.2977599</v>
       </c>
       <c r="D82"/>
       <c r="E82" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>18</v>
@@ -4446,7 +4425,7 @@
         <v>19</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I82"/>
       <c r="J82"/>
@@ -4459,17 +4438,17 @@
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>46.1757686</v>
+        <v>46.4767783</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>11.8283805</v>
+        <v>11.7703649</v>
       </c>
       <c r="D83"/>
       <c r="E83" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>18</v>
@@ -4478,7 +4457,7 @@
         <v>19</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I83"/>
       <c r="J83"/>
@@ -4491,17 +4470,17 @@
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>46.1757686</v>
+        <v>45.9603668</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>11.8283805</v>
+        <v>10.9101973</v>
       </c>
       <c r="D84"/>
       <c r="E84" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>18</v>
@@ -4510,7 +4489,7 @@
         <v>19</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="I84"/>
       <c r="J84"/>
@@ -4523,31 +4502,39 @@
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>46.0710383</v>
+        <v>45.78154</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>11.1248052</v>
+        <v>10.941185</v>
       </c>
       <c r="D85"/>
       <c r="E85" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I85" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F85" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I85"/>
-      <c r="J85"/>
-      <c r="K85"/>
-      <c r="L85"/>
+      <c r="J85" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="M85"/>
       <c r="N85"/>
       <c r="O85"/>
@@ -4555,17 +4542,17 @@
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>45.89096</v>
+        <v>46.36553740000001</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>11.0401399</v>
+        <v>10.9387742</v>
       </c>
       <c r="D86"/>
       <c r="E86" s="4" t="s">
-        <v>258</v>
+        <v>314</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>18</v>
@@ -4574,7 +4561,7 @@
         <v>19</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>20</v>
+        <v>315</v>
       </c>
       <c r="I86"/>
       <c r="J86"/>
@@ -4587,17 +4574,17 @@
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>45.9708209</v>
+        <v>46.0747793</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>10.9456656</v>
+        <v>11.1217486</v>
       </c>
       <c r="D87"/>
       <c r="E87" s="4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>18</v>
@@ -4605,9 +4592,7 @@
       <c r="G87" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H87" s="4" t="s">
-        <v>314</v>
-      </c>
+      <c r="H87"/>
       <c r="I87"/>
       <c r="J87"/>
       <c r="K87"/>
@@ -4619,17 +4604,17 @@
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>46.26176419999999</v>
+        <v>45.9253574</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>11.8002183</v>
+        <v>11.341417</v>
       </c>
       <c r="D88"/>
       <c r="E88" s="4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>18</v>
@@ -4638,7 +4623,7 @@
         <v>19</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="I88"/>
       <c r="J88"/>
@@ -4651,17 +4636,17 @@
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>46.298827</v>
+        <v>45.88919839999999</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>10.811343</v>
+        <v>10.8430696</v>
       </c>
       <c r="D89"/>
       <c r="E89" s="4" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>18</v>
@@ -4670,7 +4655,7 @@
         <v>19</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>319</v>
+        <v>66</v>
       </c>
       <c r="I89"/>
       <c r="J89"/>
@@ -4683,17 +4668,17 @@
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>45.88919839999999</v>
+        <v>46.2912024</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>10.8430696</v>
+        <v>11.4605662</v>
       </c>
       <c r="D90"/>
       <c r="E90" s="4" t="s">
-        <v>266</v>
+        <v>323</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>18</v>
@@ -4702,7 +4687,7 @@
         <v>19</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="I90"/>
       <c r="J90"/>
@@ -4715,17 +4700,17 @@
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>46.1757686</v>
+        <v>46.0023334</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>11.8283805</v>
+        <v>11.2247758</v>
       </c>
       <c r="D91"/>
       <c r="E91" s="4" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>18</v>
@@ -4734,7 +4719,7 @@
         <v>19</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="I91"/>
       <c r="J91"/>
@@ -4747,17 +4732,17 @@
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>46.4767783</v>
+        <v>46.42086339999999</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>11.7703649</v>
+        <v>11.6748775</v>
       </c>
       <c r="D92"/>
       <c r="E92" s="4" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>18</v>
@@ -4766,7 +4751,7 @@
         <v>19</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>181</v>
+        <v>291</v>
       </c>
       <c r="I92"/>
       <c r="J92"/>
@@ -4779,17 +4764,17 @@
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>46.36553740000001</v>
+        <v>45.9195492</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>10.9387742</v>
+        <v>10.8329991</v>
       </c>
       <c r="D93"/>
       <c r="E93" s="4" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>18</v>
@@ -4798,7 +4783,7 @@
         <v>19</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>326</v>
+        <v>123</v>
       </c>
       <c r="I93"/>
       <c r="J93"/>
@@ -4811,17 +4796,17 @@
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>45.78154</v>
+        <v>46.242222</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>10.941185</v>
+        <v>11.5025</v>
       </c>
       <c r="D94"/>
       <c r="E94" s="4" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>18</v>
@@ -4830,20 +4815,12 @@
         <v>19</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="K94" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="L94" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
       <c r="M94"/>
       <c r="N94"/>
       <c r="O94"/>
@@ -4854,10 +4831,10 @@
         <v>332</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>45.464794</v>
+        <v>45.9096785</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>9.191839000000002</v>
+        <v>11.1845902</v>
       </c>
       <c r="D95"/>
       <c r="E95" s="4" t="s">
@@ -4872,18 +4849,10 @@
       <c r="H95" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="I95" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="L95" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
       <c r="M95"/>
       <c r="N95"/>
       <c r="O95"/>
@@ -4891,17 +4860,17 @@
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>46.2895689</v>
+        <v>46.0710383</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>11.5079659</v>
+        <v>11.1248052</v>
       </c>
       <c r="D96"/>
       <c r="E96" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>18</v>
@@ -4910,7 +4879,7 @@
         <v>19</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>340</v>
+        <v>23</v>
       </c>
       <c r="I96"/>
       <c r="J96"/>
@@ -4923,17 +4892,17 @@
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>46.060537</v>
+        <v>46.0097207</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>11.2406332</v>
+        <v>11.3061366</v>
       </c>
       <c r="D97"/>
       <c r="E97" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>18</v>
@@ -4942,16 +4911,14 @@
         <v>19</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>210</v>
+        <v>302</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="J97" s="4" t="s">
-        <v>344</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="J97"/>
       <c r="K97" s="4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="L97" s="4" t="s">
         <v>27</v>
@@ -4963,17 +4930,17 @@
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>45.9117544</v>
+        <v>46.1243042</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>10.6134314</v>
+        <v>11.2574845</v>
       </c>
       <c r="D98"/>
       <c r="E98" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>18</v>
@@ -4982,7 +4949,7 @@
         <v>19</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="I98"/>
       <c r="J98"/>
@@ -4995,17 +4962,17 @@
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>46.1925658</v>
+        <v>45.7905752</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>11.1618684</v>
+        <v>11.1253551</v>
       </c>
       <c r="D99"/>
       <c r="E99" s="4" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>18</v>
@@ -5014,7 +4981,7 @@
         <v>19</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>351</v>
+        <v>123</v>
       </c>
       <c r="I99"/>
       <c r="J99"/>
@@ -5027,17 +4994,17 @@
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>45.9195492</v>
+        <v>46.1925658</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>10.8329991</v>
+        <v>11.1618684</v>
       </c>
       <c r="D100"/>
       <c r="E100" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>18</v>
@@ -5046,7 +5013,7 @@
         <v>19</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>155</v>
+        <v>348</v>
       </c>
       <c r="I100"/>
       <c r="J100"/>
@@ -5059,17 +5026,17 @@
     </row>
     <row r="101">
       <c r="A101" s="4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>45.9096785</v>
+        <v>45.8513894</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>11.1845902</v>
+        <v>10.9787861</v>
       </c>
       <c r="D101"/>
       <c r="E101" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>18</v>
@@ -5078,7 +5045,7 @@
         <v>19</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="I101"/>
       <c r="J101"/>
@@ -5091,17 +5058,17 @@
     </row>
     <row r="102">
       <c r="A102" s="4" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>45.9253574</v>
+        <v>43.7730912</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>11.341417</v>
+        <v>11.2554649</v>
       </c>
       <c r="D102"/>
       <c r="E102" s="4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>18</v>
@@ -5110,12 +5077,16 @@
         <v>19</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="I102"/>
+        <v>354</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="J102"/>
       <c r="K102"/>
-      <c r="L102"/>
+      <c r="L102" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="M102"/>
       <c r="N102"/>
       <c r="O102"/>
@@ -5123,17 +5094,17 @@
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>46.0023334</v>
+        <v>45.81712659999999</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>11.2247758</v>
+        <v>10.9495574</v>
       </c>
       <c r="D103"/>
       <c r="E103" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>18</v>
@@ -5142,7 +5113,7 @@
         <v>19</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>362</v>
+        <v>123</v>
       </c>
       <c r="I103"/>
       <c r="J103"/>
@@ -5155,17 +5126,17 @@
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>45.7905752</v>
+        <v>46.4907862</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>11.1253551</v>
+        <v>11.7123873</v>
       </c>
       <c r="D104"/>
       <c r="E104" s="4" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>18</v>
@@ -5174,7 +5145,7 @@
         <v>19</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>155</v>
+        <v>360</v>
       </c>
       <c r="I104"/>
       <c r="J104"/>
@@ -5187,17 +5158,17 @@
     </row>
     <row r="105">
       <c r="A105" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>46.242222</v>
+        <v>46.4767277</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>11.5025</v>
+        <v>11.7703015</v>
       </c>
       <c r="D105"/>
       <c r="E105" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>18</v>
@@ -5206,7 +5177,7 @@
         <v>19</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>198</v>
+        <v>305</v>
       </c>
       <c r="I105"/>
       <c r="J105"/>
@@ -5219,17 +5190,17 @@
     </row>
     <row r="106">
       <c r="A106" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>45.8513894</v>
+        <v>45.9117544</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>10.9787861</v>
+        <v>10.6134314</v>
       </c>
       <c r="D106"/>
       <c r="E106" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>18</v>
@@ -5238,7 +5209,7 @@
         <v>19</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I106"/>
       <c r="J106"/>
@@ -5251,17 +5222,17 @@
     </row>
     <row r="107">
       <c r="A107" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>46.4907862</v>
+        <v>46.3199561</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>11.7123873</v>
+        <v>10.8400103</v>
       </c>
       <c r="D107"/>
       <c r="E107" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>18</v>
@@ -5270,7 +5241,7 @@
         <v>19</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>372</v>
+        <v>249</v>
       </c>
       <c r="I107"/>
       <c r="J107"/>
@@ -5283,17 +5254,17 @@
     </row>
     <row r="108">
       <c r="A108" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>46.2564381</v>
+        <v>46.4365458</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>10.5808235</v>
+        <v>11.1401368</v>
       </c>
       <c r="D108"/>
       <c r="E108" s="4" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>18</v>
@@ -5302,7 +5273,7 @@
         <v>19</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="I108"/>
       <c r="J108"/>
@@ -5315,17 +5286,17 @@
     </row>
     <row r="109">
       <c r="A109" s="4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>45.9603668</v>
+        <v>46.312589</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>10.9101973</v>
+        <v>11.602437</v>
       </c>
       <c r="D109"/>
       <c r="E109" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>18</v>
@@ -5334,7 +5305,7 @@
         <v>19</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>314</v>
+        <v>115</v>
       </c>
       <c r="I109"/>
       <c r="J109"/>
@@ -5347,17 +5318,17 @@
     </row>
     <row r="110">
       <c r="A110" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>46.2912024</v>
+        <v>46.3078419</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>11.4605662</v>
+        <v>10.7355513</v>
       </c>
       <c r="D110"/>
       <c r="E110" s="4" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>18</v>
@@ -5366,7 +5337,7 @@
         <v>19</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="I110"/>
       <c r="J110"/>
@@ -5379,17 +5350,17 @@
     </row>
     <row r="111">
       <c r="A111" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>46.312589</v>
+        <v>46.30530900000001</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>11.602437</v>
+        <v>11.4579089</v>
       </c>
       <c r="D111"/>
       <c r="E111" s="4" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>18</v>
@@ -5398,7 +5369,7 @@
         <v>19</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>121</v>
+        <v>377</v>
       </c>
       <c r="I111"/>
       <c r="J111"/>
@@ -5411,17 +5382,17 @@
     </row>
     <row r="112">
       <c r="A112" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>46.06174</v>
+        <v>46.27468210000001</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>11.2369603</v>
+        <v>11.0481459</v>
       </c>
       <c r="D112"/>
       <c r="E112" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>18</v>
@@ -5430,7 +5401,7 @@
         <v>19</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>210</v>
+        <v>348</v>
       </c>
       <c r="I112"/>
       <c r="J112"/>
@@ -5443,17 +5414,17 @@
     </row>
     <row r="113">
       <c r="A113" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>46.4573084</v>
+        <v>45.9509207</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>11.6996124</v>
+        <v>11.0201642</v>
       </c>
       <c r="D113"/>
       <c r="E113" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>18</v>
@@ -5462,7 +5433,7 @@
         <v>19</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>386</v>
+        <v>123</v>
       </c>
       <c r="I113"/>
       <c r="J113"/>
@@ -5475,17 +5446,17 @@
     </row>
     <row r="114">
       <c r="A114" s="4" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>45.9509207</v>
+        <v>46.2895689</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>11.0201642</v>
+        <v>11.5079659</v>
       </c>
       <c r="D114"/>
       <c r="E114" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>18</v>
@@ -5494,7 +5465,7 @@
         <v>19</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>155</v>
+        <v>384</v>
       </c>
       <c r="I114"/>
       <c r="J114"/>
@@ -5507,17 +5478,17 @@
     </row>
     <row r="115">
       <c r="A115" s="4" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>46.27468210000001</v>
+        <v>45.9296906</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>11.0481459</v>
+        <v>11.067229</v>
       </c>
       <c r="D115"/>
       <c r="E115" s="4" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>18</v>
@@ -5526,7 +5497,7 @@
         <v>19</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>351</v>
+        <v>123</v>
       </c>
       <c r="I115"/>
       <c r="J115"/>
@@ -5539,17 +5510,17 @@
     </row>
     <row r="116">
       <c r="A116" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>46.3199561</v>
+        <v>46.06174</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>10.8400103</v>
+        <v>11.2369603</v>
       </c>
       <c r="D116"/>
       <c r="E116" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>18</v>
@@ -5558,7 +5529,7 @@
         <v>19</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>319</v>
+        <v>151</v>
       </c>
       <c r="I116"/>
       <c r="J116"/>
@@ -5571,17 +5542,17 @@
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>46.30530900000001</v>
+        <v>46.2865642</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>11.4579089</v>
+        <v>11.5592481</v>
       </c>
       <c r="D117"/>
       <c r="E117" s="4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>18</v>
@@ -5590,7 +5561,7 @@
         <v>19</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="I117"/>
       <c r="J117"/>
@@ -5603,17 +5574,17 @@
     </row>
     <row r="118">
       <c r="A118" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>46.4365458</v>
+        <v>45.73277940000001</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>11.1401368</v>
+        <v>10.9397993</v>
       </c>
       <c r="D118"/>
       <c r="E118" s="4" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>18</v>
@@ -5622,7 +5593,7 @@
         <v>19</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>397</v>
+        <v>60</v>
       </c>
       <c r="I118"/>
       <c r="J118"/>
@@ -5635,17 +5606,17 @@
     </row>
     <row r="119">
       <c r="A119" s="4" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>46.3078419</v>
+        <v>46.43068939999999</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>10.7355513</v>
+        <v>11.6857172</v>
       </c>
       <c r="D119"/>
       <c r="E119" s="4" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>18</v>
@@ -5654,7 +5625,7 @@
         <v>19</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="I119"/>
       <c r="J119"/>
@@ -5667,17 +5638,17 @@
     </row>
     <row r="120">
       <c r="A120" s="4" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>45.73277940000001</v>
+        <v>46.4573084</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>10.9397993</v>
+        <v>11.6996124</v>
       </c>
       <c r="D120"/>
       <c r="E120" s="4" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>18</v>
@@ -5686,7 +5657,7 @@
         <v>19</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>51</v>
+        <v>377</v>
       </c>
       <c r="I120"/>
       <c r="J120"/>
@@ -5699,17 +5670,17 @@
     </row>
     <row r="121">
       <c r="A121" s="4" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>46.43068939999999</v>
+        <v>46.4121956</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>11.6857172</v>
+        <v>10.7888809</v>
       </c>
       <c r="D121"/>
       <c r="E121" s="4" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>18</v>
@@ -5718,7 +5689,7 @@
         <v>19</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="I121"/>
       <c r="J121"/>
@@ -5731,17 +5702,17 @@
     </row>
     <row r="122">
       <c r="A122" s="4" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>46.2865642</v>
+        <v>46.07078509999999</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>11.5592481</v>
+        <v>11.1124883</v>
       </c>
       <c r="D122"/>
       <c r="E122" s="4" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>18</v>
@@ -5750,7 +5721,7 @@
         <v>19</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>386</v>
+        <v>39</v>
       </c>
       <c r="I122"/>
       <c r="J122"/>
@@ -5763,17 +5734,17 @@
     </row>
     <row r="123">
       <c r="A123" s="4" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>46.4121956</v>
+        <v>45.89096</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>10.7888809</v>
+        <v>11.0401399</v>
       </c>
       <c r="D123"/>
       <c r="E123" s="4" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>18</v>
@@ -5782,7 +5753,7 @@
         <v>19</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>319</v>
+        <v>20</v>
       </c>
       <c r="I123"/>
       <c r="J123"/>
@@ -5795,17 +5766,17 @@
     </row>
     <row r="124">
       <c r="A124" s="4" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>45.9296906</v>
+        <v>46.066963</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>11.067229</v>
+        <v>11.1511945</v>
       </c>
       <c r="D124"/>
       <c r="E124" s="4" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>18</v>
@@ -5814,7 +5785,7 @@
         <v>19</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="I124"/>
       <c r="J124"/>
@@ -5827,17 +5798,17 @@
     </row>
     <row r="125">
       <c r="A125" s="4" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>46.07078509999999</v>
+        <v>45.886972</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>11.1124883</v>
+        <v>11.045252</v>
       </c>
       <c r="D125"/>
       <c r="E125" s="4" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>18</v>
@@ -5846,7 +5817,7 @@
         <v>19</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="I125"/>
       <c r="J125"/>
@@ -5859,17 +5830,17 @@
     </row>
     <row r="126">
       <c r="A126" s="4" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>46.2912024</v>
+        <v>46.066349</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>11.4605662</v>
+        <v>11.123444</v>
       </c>
       <c r="D126"/>
       <c r="E126" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>18</v>
@@ -5878,7 +5849,7 @@
         <v>19</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>198</v>
+        <v>23</v>
       </c>
       <c r="I126"/>
       <c r="J126"/>
@@ -5891,17 +5862,17 @@
     </row>
     <row r="127">
       <c r="A127" s="4" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>45.89096</v>
+        <v>46.2912024</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>11.0401399</v>
+        <v>11.4605662</v>
       </c>
       <c r="D127"/>
       <c r="E127" s="4" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>18</v>
@@ -5910,7 +5881,7 @@
         <v>19</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="I127"/>
       <c r="J127"/>
@@ -5923,17 +5894,17 @@
     </row>
     <row r="128">
       <c r="A128" s="4" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>46.0758275</v>
+        <v>46.0695538</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>11.1445428</v>
+        <v>11.1236897</v>
       </c>
       <c r="D128"/>
       <c r="E128" s="4" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>18</v>
@@ -5955,17 +5926,17 @@
     </row>
     <row r="129">
       <c r="A129" s="4" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>46.0747793</v>
+        <v>46.068653</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>11.1217486</v>
+        <v>11.1269701</v>
       </c>
       <c r="D129"/>
       <c r="E129" s="4" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>18</v>
@@ -5973,7 +5944,9 @@
       <c r="G129" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H129"/>
+      <c r="H129" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="I129"/>
       <c r="J129"/>
       <c r="K129"/>
@@ -5985,17 +5958,17 @@
     </row>
     <row r="130">
       <c r="A130" s="4" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>45.886972</v>
+        <v>46.0747793</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>11.045252</v>
+        <v>11.1217486</v>
       </c>
       <c r="D130"/>
       <c r="E130" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>18</v>
@@ -6003,9 +5976,7 @@
       <c r="G130" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H130" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="H130"/>
       <c r="I130"/>
       <c r="J130"/>
       <c r="K130"/>
@@ -6017,7 +5988,7 @@
     </row>
     <row r="131">
       <c r="A131" s="4" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B131" s="2" t="n">
         <v>45.8938485</v>
@@ -6027,7 +5998,7 @@
       </c>
       <c r="D131"/>
       <c r="E131" s="4" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>18</v>
@@ -6049,17 +6020,17 @@
     </row>
     <row r="132">
       <c r="A132" s="4" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>46.1877609</v>
+        <v>46.2207428</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>11.8302311</v>
+        <v>11.0364617</v>
       </c>
       <c r="D132"/>
       <c r="E132" s="4" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>18</v>
@@ -6068,7 +6039,7 @@
         <v>19</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="I132"/>
       <c r="J132"/>
@@ -6081,17 +6052,17 @@
     </row>
     <row r="133">
       <c r="A133" s="4" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>46.3078419</v>
+        <v>45.9117544</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>10.7355513</v>
+        <v>10.6134314</v>
       </c>
       <c r="D133"/>
       <c r="E133" s="4" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>18</v>
@@ -6100,7 +6071,7 @@
         <v>19</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>187</v>
+        <v>365</v>
       </c>
       <c r="I133"/>
       <c r="J133"/>
@@ -6113,17 +6084,17 @@
     </row>
     <row r="134">
       <c r="A134" s="4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>45.9117544</v>
+        <v>46.3078419</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>10.6134314</v>
+        <v>10.7355513</v>
       </c>
       <c r="D134"/>
       <c r="E134" s="4" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>18</v>
@@ -6132,7 +6103,7 @@
         <v>19</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>348</v>
+        <v>224</v>
       </c>
       <c r="I134"/>
       <c r="J134"/>
@@ -6145,17 +6116,17 @@
     </row>
     <row r="135">
       <c r="A135" s="4" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>45.8765359</v>
+        <v>46.1877609</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>10.7321478</v>
+        <v>11.8302311</v>
       </c>
       <c r="D135"/>
       <c r="E135" s="4" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>18</v>
@@ -6164,7 +6135,7 @@
         <v>19</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>432</v>
+        <v>256</v>
       </c>
       <c r="I135"/>
       <c r="J135"/>
@@ -6177,7 +6148,7 @@
     </row>
     <row r="136">
       <c r="A136" s="4" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B136" s="2" t="n">
         <v>46.0802175</v>
@@ -6187,7 +6158,7 @@
       </c>
       <c r="D136"/>
       <c r="E136" s="4" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>18</v>
@@ -6196,7 +6167,7 @@
         <v>19</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="I136"/>
       <c r="J136"/>
@@ -6209,17 +6180,17 @@
     </row>
     <row r="137">
       <c r="A137" s="4" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>46.2207428</v>
+        <v>45.8765359</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>11.0364617</v>
+        <v>10.7321478</v>
       </c>
       <c r="D137"/>
       <c r="E137" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>18</v>
@@ -6228,7 +6199,7 @@
         <v>19</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>351</v>
+        <v>431</v>
       </c>
       <c r="I137"/>
       <c r="J137"/>
@@ -6241,7 +6212,7 @@
     </row>
     <row r="138">
       <c r="A138" s="4" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B138" s="2" t="n">
         <v>46.2888742</v>
@@ -6251,7 +6222,7 @@
       </c>
       <c r="D138"/>
       <c r="E138" s="4" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>18</v>
@@ -6260,7 +6231,7 @@
         <v>19</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
       <c r="I138"/>
       <c r="J138"/>
